--- a/data/1.xlsx
+++ b/data/1.xlsx
@@ -469,11 +469,7 @@
           <t>围金坊（广州）服饰有限公司</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>9144010179736795XT</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>寇荣庆</t>
@@ -494,11 +490,7 @@
           <t>深圳市龙江电路有限公司</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>914403005815604518</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>龚德科</t>
@@ -519,11 +511,7 @@
           <t>潞丰(广东)照明科技有限公司</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>91442000056840607J</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>衷春藤</t>
@@ -544,11 +532,7 @@
           <t>泗阳金顺台板厂</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>91321323MA1MGG747N</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>王红英</t>
@@ -569,11 +553,7 @@
           <t>丹阳市鹏运百货贸易有限公司</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>913211816883309393</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>朱正平</t>
@@ -594,11 +574,7 @@
           <t>苏州易顺合新材料有限公司</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>91320508MA1ME39R1Y</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>王伟</t>
@@ -619,11 +595,7 @@
           <t>东莞市先红物流有限公司</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>91441900314840977A</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>余秋红</t>
@@ -644,11 +616,7 @@
           <t>南京庆盟电子商务有限公司</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>91320115MA1PY3R23Q</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>陈春明</t>
@@ -669,11 +637,7 @@
           <t>东莞市东埔园林景观工程有限公司</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>91441900MA4UNP2K1X</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
           <t>肖志强</t>
@@ -694,11 +658,7 @@
           <t>深圳市嘉信鑫隆建材有限公司</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>91440300691197665X</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
           <t>张晓霞</t>
@@ -719,11 +679,7 @@
           <t>苏州先发模塑科技有限公司</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>91320594MA1NK5B10P</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
           <t>刘先发</t>
@@ -744,11 +700,7 @@
           <t>深圳市穿梭猫智能科技有限公司</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>91440300MA5D9AEL5K</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
           <t>李燕珊</t>
@@ -769,11 +721,7 @@
           <t>昆山捷胜兴金属材料有限公司</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>91320583063201790D</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
           <t>李传能</t>
@@ -794,11 +742,7 @@
           <t>沅江市鑫荣贸易有限责任公司</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>91430981MA4PC8EN1T</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
           <t>陈勇峰</t>
@@ -819,11 +763,7 @@
           <t>长沙戈曼机电设备有限公司</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>91430100599424861G</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
           <t>邓磊</t>
@@ -844,11 +784,7 @@
           <t>淮安卓创酒店管理有限公司</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>91320803MA1N0M0E49</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
           <t>邱开军</t>
@@ -869,11 +805,7 @@
           <t>吴江市文质纺织品有限公司</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>9132050977154062XR</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
           <t>沈斌</t>
@@ -894,11 +826,7 @@
           <t>湖南省新瀚建设有限公司</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>91430121MA4L699831</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
           <t>张瑞军</t>
@@ -919,11 +847,7 @@
           <t>广州飞叔城配科技有限公司</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>91440101552389309M</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
           <t>王冠军</t>
@@ -944,11 +868,7 @@
           <t>广东大仁通供应链管理有限公司</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>91440400MA4UNA1J6J</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
           <t>张大伟</t>
@@ -969,11 +889,7 @@
           <t>深圳市新和大红灯笼餐饮管理有限公司</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>91440300279337179M</t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
           <t>赵秋</t>
@@ -994,11 +910,7 @@
           <t>广州市中晟纸业有限公司</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>91440101MA5ATGCJ9X</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
           <t>黎仲伟</t>
@@ -1019,11 +931,7 @@
           <t>天津传泽商贸有限公司</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>91120104589766059F</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
           <t>信伟</t>
@@ -1044,11 +952,7 @@
           <t>深圳市友道机械设备有限公司</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>91440300063859920Y</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
           <t>荆林国</t>
@@ -1069,11 +973,7 @@
           <t>广州信道计算机服务有限公司</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>91440105MA59AX068K</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>罗海啸</t>
@@ -1094,11 +994,7 @@
           <t>深圳市万博源文化发展有限公司</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>914403000769471454</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
           <t>江伟</t>
@@ -1119,11 +1015,7 @@
           <t>佛山市方勇建材有限公司</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>91440605MA4X91JC5U</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
           <t>刘方</t>
@@ -1144,11 +1036,7 @@
           <t>东莞市恒昌兴金属制品有限公司</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>91441900673078339Y</t>
-        </is>
-      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
           <t>李丽芹</t>
@@ -1169,11 +1057,7 @@
           <t>珠海市香洲伊路服饰店</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>92440400L5393300XE</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
           <t>徐江英</t>
@@ -1194,11 +1078,7 @@
           <t>南通慧佳暖通工程有限公司</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>91320611MA1P0BDR54</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
           <t>王小飞</t>
@@ -1219,11 +1099,7 @@
           <t>台州市丰源施工劳务有限公司</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>91331082336917373R</t>
-        </is>
-      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
           <t>郭于如</t>
@@ -1244,11 +1120,7 @@
           <t>广州市盈晶电子有限公司</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>91440101MA59JAM649</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
           <t>陈洁文</t>
@@ -1269,11 +1141,7 @@
           <t>洛阳为钦建筑劳务有限公司</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>9141030009478137XN</t>
-        </is>
-      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
           <t>张国兴</t>
@@ -1294,11 +1162,7 @@
           <t>海宁市朝顺针织有限公司</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>91330481350109890R</t>
-        </is>
-      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
           <t>盛宝银</t>
@@ -1319,11 +1183,7 @@
           <t>吴江振超纺织有限公司</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>913205097705141203</t>
-        </is>
-      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
           <t>徐惠坚</t>
@@ -1344,11 +1204,7 @@
           <t>苏州新鸿基锁业科技有限公司</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>913205947641600634</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
           <t>游志英</t>
@@ -1369,11 +1225,7 @@
           <t>蓝山环保科技有限公司</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>9133010666804058XF</t>
-        </is>
-      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
           <t>孙科</t>
@@ -1394,11 +1246,7 @@
           <t>湖州鑫强机械设备有限公司</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>91330502MA29K2DM65</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
           <t>黄凯</t>
@@ -1419,11 +1267,7 @@
           <t>重庆西康机电设备有限公司</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>91500105585731967A</t>
-        </is>
-      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
           <t>葛明均</t>
@@ -1444,11 +1288,7 @@
           <t>河南翰宇新能源技术有限公司</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>914101003372587449</t>
-        </is>
-      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
           <t>张天鹏</t>
@@ -1469,11 +1309,7 @@
           <t>苏州源利丝纺织品有限公司</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>9132050668493556XW</t>
-        </is>
-      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
           <t>钱峰</t>
@@ -1494,11 +1330,7 @@
           <t>深圳市超凡星科技有限公司</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>9144030056854385X3</t>
-        </is>
-      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
           <t>梁永亮</t>
@@ -1519,11 +1351,7 @@
           <t>深圳市昊峰科技有限公司</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>91440300398493764L</t>
-        </is>
-      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
           <t>程泽欢</t>
@@ -1544,11 +1372,7 @@
           <t>玉环市百盈阀门机械厂</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>91331021798577027Y</t>
-        </is>
-      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
           <t>阮招通</t>
@@ -1569,11 +1393,7 @@
           <t>浙江圆形科技有限公司</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>91330109MA2B08W65M</t>
-        </is>
-      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
           <t>施明拢</t>
@@ -1594,11 +1414,7 @@
           <t>天津滨海新区鼎昌隆能源科技有限公司</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>91120116300468254F</t>
-        </is>
-      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
           <t>王中亮</t>
@@ -1619,11 +1435,7 @@
           <t>在乎（厦门）信息技术有限公司</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>913502033032824126</t>
-        </is>
-      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
           <t>林圣杰</t>
@@ -1644,11 +1456,7 @@
           <t>河南宏达检测技术有限公司</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>91410100569816549Q</t>
-        </is>
-      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
           <t>张万兵</t>
@@ -1669,11 +1477,7 @@
           <t>南通乾泰建设工程有限公司</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>9132068133922525XC</t>
-        </is>
-      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
           <t>徐勇</t>
@@ -1694,11 +1498,7 @@
           <t>南京源长烟酒商贸有限公司</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>91320115MA1MPWR47G</t>
-        </is>
-      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
           <t>江六生</t>
@@ -1719,11 +1519,7 @@
           <t>安阳市北关区建达副食批零部</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>92410503MA42BRU94E</t>
-        </is>
-      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
           <t>杨黎阳</t>
@@ -1744,11 +1540,7 @@
           <t>吴江市佳丰喷织厂</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>913205097370822155</t>
-        </is>
-      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
           <t>周春龙</t>
@@ -1769,11 +1561,7 @@
           <t>重庆正合意装饰工程有限公司</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>91500108663585185D</t>
-        </is>
-      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
           <t>刘华</t>
@@ -1794,11 +1582,7 @@
           <t>佛山市南海区力亿金属辅助材料有限公司</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>914406056864053352</t>
-        </is>
-      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
           <t>陈黎明</t>
@@ -1819,11 +1603,7 @@
           <t>射阳县实润电器有限公司</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>91320924555862704Y</t>
-        </is>
-      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
           <t>陈飞</t>
@@ -1844,11 +1624,7 @@
           <t>扬州市浩凯太阳能科技有限公司</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>91321084085904462Q</t>
-        </is>
-      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
           <t>胡雪梅</t>
@@ -1869,11 +1645,7 @@
           <t>湖南究竟品牌咨询有限公司</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>91430104MA4M4ND28E</t>
-        </is>
-      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
           <t>王润巧</t>
@@ -1894,11 +1666,7 @@
           <t>新郑市华裕电缆材料有限公司</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>914101847891833098</t>
-        </is>
-      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
           <t>王建永</t>
@@ -1919,11 +1687,7 @@
           <t>湖州华夏车业有限公司</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>913305027392483976</t>
-        </is>
-      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
           <t>张建惠</t>
@@ -1944,11 +1708,7 @@
           <t>深圳市联升泰科技有限公司</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>91440300561510879Y</t>
-        </is>
-      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
           <t>张永升</t>
@@ -1969,11 +1729,7 @@
           <t>佛山市椅之皇家具有限公司</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>91440606MA4UWFH804</t>
-        </is>
-      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
           <t>桑鹏</t>
@@ -1994,11 +1750,7 @@
           <t>华智能电子（深圳）有限公司</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>91440300565746918U</t>
-        </is>
-      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
           <t>袁强新</t>
@@ -2019,11 +1771,7 @@
           <t>深圳市华松纸业有限公司</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>91440300587900437R</t>
-        </is>
-      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
           <t>倪建文</t>
@@ -2044,11 +1792,7 @@
           <t>东莞市裕弘光电科技有限公司</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>91441900MA4X1M4M5U</t>
-        </is>
-      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
           <t>张远秀</t>
@@ -2069,11 +1813,7 @@
           <t>南京天润汽车维修有限公司</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>91320115742354246E</t>
-        </is>
-      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
           <t>许华桂</t>
@@ -2094,11 +1834,7 @@
           <t>广东创科机电设备有限公司</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>91440500093338122L</t>
-        </is>
-      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
           <t>胡先兰</t>
@@ -2119,11 +1855,7 @@
           <t>常州昊晟新材料科技有限公司</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>91320402MA1MN8UU2G</t>
-        </is>
-      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
           <t>沈志云</t>
@@ -2144,11 +1876,7 @@
           <t>河南龙顶防腐保温工程有限公司</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>91410105MA448B060R</t>
-        </is>
-      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
           <t>辛雪彦</t>
@@ -2169,11 +1897,7 @@
           <t>云南赣铁贸易有限公司</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>91530100MA6KBCA29J</t>
-        </is>
-      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
           <t>刘辉</t>
@@ -2194,11 +1918,7 @@
           <t>郑州信人钢材有限公司</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>91410104747404433Y</t>
-        </is>
-      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
           <t>刘祥利</t>
@@ -2219,11 +1939,7 @@
           <t>平湖市林峰制衣有限公司</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>91330482704434931H</t>
-        </is>
-      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
           <t>邹锋平</t>
@@ -2244,11 +1960,7 @@
           <t>昭通晨达建设工程有限公司</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>91530600748261876U</t>
-        </is>
-      </c>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
           <t>冯贤坤</t>
@@ -2269,11 +1981,7 @@
           <t>温州冠恒包装有限公司</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>9133032734403452X7</t>
-        </is>
-      </c>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
           <t>林继灌</t>
@@ -2294,11 +2002,7 @@
           <t>云南小草贸易有限公司</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>91530100MA6N05WJ1G</t>
-        </is>
-      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
           <t>覃龙杰</t>
@@ -2319,11 +2023,7 @@
           <t>新乡市洪洲农化有限公司</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>91410782752273714U</t>
-        </is>
-      </c>
+      <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
           <t>张敬波</t>
@@ -2344,11 +2044,7 @@
           <t>余姚市优诚模架有限公司</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>91330281MA2AF5777Y</t>
-        </is>
-      </c>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
           <t>林子菊</t>
@@ -2369,11 +2065,7 @@
           <t>汕头市好利包装材料有限公司</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>91440515MA4WPWGGX6</t>
-        </is>
-      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
           <t>林少文</t>
@@ -2394,11 +2086,7 @@
           <t>肇庆市高要区彪腾达五金制品有限公司</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>91441283MA4WKGRK1C</t>
-        </is>
-      </c>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
           <t>张雁英</t>
@@ -2419,11 +2107,7 @@
           <t>宁波东幸汽车销售服务有限公司</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>91330203MA28323H8Y</t>
-        </is>
-      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
           <t>钱仕伦</t>
@@ -2444,11 +2128,7 @@
           <t>浙江永景金属材料有限公司</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>91330105757205905J</t>
-        </is>
-      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
           <t>沈金法</t>
@@ -2469,11 +2149,7 @@
           <t>东莞市忠哗模具有限公司</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>91441900584735624R</t>
-        </is>
-      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
           <t>施帅</t>
@@ -2494,11 +2170,7 @@
           <t>深圳市互联众创科技有限公司</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>914403003429591828</t>
-        </is>
-      </c>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
           <t>刘曙</t>
@@ -2519,11 +2191,7 @@
           <t>深圳市恒泰劳务有限公司</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>91440300MA5EUCFY9C</t>
-        </is>
-      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
           <t>林标武</t>
@@ -2544,11 +2212,7 @@
           <t>深圳华美轩园林实业有限公司</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>91440300319619067E</t>
-        </is>
-      </c>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
           <t>郝玉凤</t>
@@ -2569,11 +2233,7 @@
           <t>虾皮(安吉)智能科技有限公司</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>91330523MA28C5WC9L</t>
-        </is>
-      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
           <t>吴国军</t>
@@ -2594,11 +2254,7 @@
           <t>泰州市银之星建筑装饰工程有限公司</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>91321204MA1YEP7Y76</t>
-        </is>
-      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
           <t>曹银山</t>
@@ -2619,11 +2275,7 @@
           <t>中山市鸿邦制漆有限公司</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>9144200072383843X7</t>
-        </is>
-      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
           <t>梁仲华</t>
@@ -2644,11 +2296,7 @@
           <t>长沙庆荣医疗器械贸易有限公司</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>91430121MA4QAAKJ2H</t>
-        </is>
-      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
           <t>伍跃辉</t>
@@ -2669,11 +2317,7 @@
           <t>广州东桐森建材有限公司</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>9144010134023425XG</t>
-        </is>
-      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
           <t>林裕松</t>
@@ -2694,11 +2338,7 @@
           <t>深圳市快捷电子科技有限公司</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>91440300672981585X</t>
-        </is>
-      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
           <t>方光华</t>
@@ -2719,11 +2359,7 @@
           <t>新化县志平食品批发部</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>92431322MA4NXEDY4Y</t>
-        </is>
-      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
           <t>汪志辉</t>
@@ -2744,11 +2380,7 @@
           <t>无锡黄九香贸易有限公司</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>91320213MA1MBH6M3M</t>
-        </is>
-      </c>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
           <t>黄九香</t>
@@ -2769,11 +2401,7 @@
           <t>天津双宏物流有限公司</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>91120110MA05L4103X</t>
-        </is>
-      </c>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
           <t>李龙雨</t>
@@ -2794,11 +2422,7 @@
           <t>昆山普录耐特电子有限公司</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>91320583MA1MNF7D6Y</t>
-        </is>
-      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
           <t>成松</t>
@@ -2819,11 +2443,7 @@
           <t>广东凌宇科技有限公司</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>91440101085958110G</t>
-        </is>
-      </c>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
           <t>冯雷</t>
@@ -2844,11 +2464,7 @@
           <t>中山誉天科技有限公司</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>91442000075070185Q</t>
-        </is>
-      </c>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
           <t>龚容</t>
@@ -2869,11 +2485,7 @@
           <t>扬州青梅涂装化工设备厂</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>91321012750519848J</t>
-        </is>
-      </c>
+      <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
           <t>汤时青</t>
@@ -2894,11 +2506,7 @@
           <t>江苏厚湖建设工程有限公司</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>91320913MA1NAHK59G</t>
-        </is>
-      </c>
+      <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
           <t>刘金平</t>
@@ -2919,11 +2527,7 @@
           <t>南通川山工业材料有限公司</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>91320691MA1MFW1UX2</t>
-        </is>
-      </c>
+      <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
           <t>邓勇</t>
@@ -2944,11 +2548,7 @@
           <t>南京连鸣祥贸易有限公司</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>91320111302543457L</t>
-        </is>
-      </c>
+      <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
           <t>王亮生</t>
@@ -2969,11 +2569,7 @@
           <t>苏州禾森机电有限公司</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>91320506740654069D</t>
-        </is>
-      </c>
+      <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
           <t>胡睦</t>
@@ -2994,11 +2590,7 @@
           <t>河南高扬建筑装饰工程有限公司</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>91410100MA3X8PFR0B</t>
-        </is>
-      </c>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
           <t>张红燕</t>
@@ -3019,11 +2611,7 @@
           <t>重庆佑建新汇科技有限公司</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>91500103304840228A</t>
-        </is>
-      </c>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
           <t>张建</t>
@@ -3044,11 +2632,7 @@
           <t>河南卡立优信息技术有限公司</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>91410105MA46DNAP1J</t>
-        </is>
-      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
           <t>杨营</t>
@@ -3069,11 +2653,7 @@
           <t>郑州石之韵石材有限公司</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>9141010508227352X6</t>
-        </is>
-      </c>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
           <t>韦朋朋</t>
@@ -3094,11 +2674,7 @@
           <t>江西嘉源新材料科技有限公司</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>91361025MA37XFTP90</t>
-        </is>
-      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
           <t>王建</t>
@@ -3119,11 +2695,7 @@
           <t>西安中瑞数码科技有限公司</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>916101137835980012</t>
-        </is>
-      </c>
+      <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
           <t>董君娅</t>
@@ -3144,11 +2716,7 @@
           <t>固始郭陆滩新兴米业有限公司</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>91411525753862318Q</t>
-        </is>
-      </c>
+      <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
           <t>刘新贵</t>
@@ -3169,11 +2737,7 @@
           <t>芜湖市威盾保安服务有限公司</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>91340200059716994J</t>
-        </is>
-      </c>
+      <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
           <t>汪林</t>
@@ -3194,11 +2758,7 @@
           <t>天津海世诚货运代理有限公司</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>91120110086565087A</t>
-        </is>
-      </c>
+      <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
           <t>鲁文荣</t>
@@ -3219,11 +2779,7 @@
           <t>广东皇辉五金制品有限公司</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>91442000MA52Y6QR67</t>
-        </is>
-      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
           <t>吴应波</t>
@@ -3244,11 +2800,7 @@
           <t>广州宏大汽贸有限公司</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>91440101MA5AKHPP43</t>
-        </is>
-      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
           <t>张娜</t>
@@ -3269,11 +2821,7 @@
           <t>陕西熙越建设工程有限公司</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>91610113MA6UX3QC7E</t>
-        </is>
-      </c>
+      <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
           <t>袁立兵</t>
@@ -3294,11 +2842,7 @@
           <t>东莞市固兴实业投资有限公司</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>91441900MA4UM8C501</t>
-        </is>
-      </c>
+      <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
           <t>黄绍平</t>
@@ -3319,11 +2863,7 @@
           <t>辛集市佑琪蒂娜皮草服饰有限公司</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>91130181599938029F</t>
-        </is>
-      </c>
+      <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
           <t>王治国</t>
@@ -3344,11 +2884,7 @@
           <t>洛阳川达汽车运输有限公司</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>91410300MA467PKR4U</t>
-        </is>
-      </c>
+      <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
           <t>谭佳宁</t>
@@ -3369,11 +2905,7 @@
           <t>广州市共升教育科技有限公司</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>914401110589274907</t>
-        </is>
-      </c>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
           <t>林惠莲</t>
@@ -3394,11 +2926,7 @@
           <t>西安市沣东新城沣态建材有限公司</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>91611105MA6TW0EM8U</t>
-        </is>
-      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
           <t>张超</t>
@@ -3419,11 +2947,7 @@
           <t>重庆路孔科技有限公司</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>91500108345994813Q</t>
-        </is>
-      </c>
+      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
           <t>刘宗平</t>
@@ -3444,11 +2968,7 @@
           <t>长沙市王子钢琴艺术培训管理有限公司</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>914301113998316730</t>
-        </is>
-      </c>
+      <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
           <t>陈艳清</t>
@@ -3469,11 +2989,7 @@
           <t>宁波市元味食品有限公司</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>91330281MA2GW3JGXG</t>
-        </is>
-      </c>
+      <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
           <t>黄福科</t>
@@ -3494,11 +3010,7 @@
           <t>广州市众能网络科技有限公司</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>91440101MA5APUDB6B</t>
-        </is>
-      </c>
+      <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
           <t>庞飞</t>
@@ -3519,11 +3031,7 @@
           <t>启东市东祺燃气危险品运输有限公司</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>913206817424824324</t>
-        </is>
-      </c>
+      <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
           <t>姚允兰</t>
@@ -3544,11 +3052,7 @@
           <t>湖南省旺强商贸有限公司</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>91430922MA4R1HBG16</t>
-        </is>
-      </c>
+      <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
           <t>伍永强</t>
@@ -3569,11 +3073,7 @@
           <t>杭州月轮体育科技有限公司</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>91330110MA27WKT518</t>
-        </is>
-      </c>
+      <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
           <t>陈海哨</t>
@@ -3594,11 +3094,7 @@
           <t>北京恒高拓远装饰工程有限公司</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>91110105798512071W</t>
-        </is>
-      </c>
+      <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
           <t>黄根兵</t>
@@ -3619,11 +3115,7 @@
           <t>阜阳市和谐共赢清洗保洁服务有限公司</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>9134120039420454XQ</t>
-        </is>
-      </c>
+      <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
           <t>宁卫东</t>
@@ -3644,11 +3136,7 @@
           <t>江苏新宏瑞钢贸有限公司</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>91320281MA1N1GFE9H</t>
-        </is>
-      </c>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
           <t>王桂芬</t>
@@ -3669,11 +3157,7 @@
           <t>安徽忠信园林景观建设有限公司</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>91341881MA2NWKPA1J</t>
-        </is>
-      </c>
+      <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
           <t>程永忠</t>
@@ -3694,11 +3178,7 @@
           <t>深圳市天利玻璃有限公司</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>91440300778763201J</t>
-        </is>
-      </c>
+      <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
           <t>邱吉玲</t>
@@ -3719,11 +3199,7 @@
           <t>天津雷艺商贸有限公司</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>91120111679431762W</t>
-        </is>
-      </c>
+      <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
           <t>李勇杰</t>
@@ -3744,11 +3220,7 @@
           <t>苏州彩佑工艺服饰有限公司</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>9132050656025157X6</t>
-        </is>
-      </c>
+      <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
           <t>洪国仁</t>
@@ -3769,11 +3241,7 @@
           <t>保定市同益电器设备有限公司</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>91130605699236438N</t>
-        </is>
-      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
           <t>刘军</t>
@@ -3794,11 +3262,7 @@
           <t>盐城建盟液压机械有限公司</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>91320925331178911X</t>
-        </is>
-      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
           <t>杜艮龙</t>
@@ -3819,11 +3283,7 @@
           <t>苏州林一琳纺织有限公司</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>913205093022342328</t>
-        </is>
-      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
           <t>虞学英</t>
@@ -3844,11 +3304,7 @@
           <t>德汇新材料科技南通有限公司</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>91320691331100460N</t>
-        </is>
-      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
           <t>彭雪梅</t>
@@ -3869,11 +3325,7 @@
           <t>中山市轻纺制衣有限公司</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>91442000MA4UHJ9B3N</t>
-        </is>
-      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
           <t>彭强</t>
@@ -3894,11 +3346,7 @@
           <t>江苏梦逸纺织科技有限公司</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>91321322MA1X0QLQ66</t>
-        </is>
-      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
           <t>杨贺涛</t>
@@ -3919,11 +3367,7 @@
           <t>常州明洋纺织有限公司</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>91320404MA1P9G485T</t>
-        </is>
-      </c>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
           <t>张斌</t>
@@ -3944,11 +3388,7 @@
           <t>嘉兴市神舟印刷包装有限公司</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>913304217896508279</t>
-        </is>
-      </c>
+      <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
           <t>朱建勇</t>
@@ -3969,11 +3409,7 @@
           <t>中山市慧恒金属材料有限公司</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>91442000MA4UNDGX4N</t>
-        </is>
-      </c>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
           <t>李伟朝</t>
@@ -3994,11 +3430,7 @@
           <t>东莞市兴为精密机械设备有限公司</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>91441900MA5235QF6N</t>
-        </is>
-      </c>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
           <t>余慧玲</t>
@@ -4019,11 +3451,7 @@
           <t>南京久阔建筑工程有限公司</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>91320116MA1MB3CK73</t>
-        </is>
-      </c>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
           <t>宋光波</t>
@@ -4044,11 +3472,7 @@
           <t>常州华夏农药有限公司</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>91320412251152746E</t>
-        </is>
-      </c>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
           <t>刘和群</t>
@@ -4069,11 +3493,7 @@
           <t>中山市民众镇1949饮食店</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>92442000MA4WBEPY9G</t>
-        </is>
-      </c>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
           <t>梁建辉</t>
@@ -4094,11 +3514,7 @@
           <t>温州市吉辰环保科技有限公司</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>913303025505373475</t>
-        </is>
-      </c>
+      <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
           <t>刘磊</t>
@@ -4119,11 +3535,7 @@
           <t>安徽理工预应力设备有限责任公司</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>91340100683629085C</t>
-        </is>
-      </c>
+      <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
           <t>施晓江</t>
@@ -4144,11 +3556,7 @@
           <t>河北迈哲仪器仪表科技有限公司</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>91130100347737896N</t>
-        </is>
-      </c>
+      <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
           <t>王嘉琪</t>
@@ -4169,11 +3577,7 @@
           <t>天津聚旺进出口贸易有限公司</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>91120223MA06HKF64E</t>
-        </is>
-      </c>
+      <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
           <t>周宗旺</t>
@@ -4194,11 +3598,7 @@
           <t>江西嘉淞江贸易有限公司</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>91360703MA394J5L8P</t>
-        </is>
-      </c>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
           <t>江鹤松</t>
@@ -4219,11 +3619,7 @@
           <t>杭州希象空调工程有限公司</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>91330104MA2B2C5M6R</t>
-        </is>
-      </c>
+      <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
           <t>郑宏展</t>
@@ -4244,11 +3640,7 @@
           <t>西安挪亚商贸有限公司</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>91610113MA6TYNTE1P</t>
-        </is>
-      </c>
+      <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
           <t>金渤森</t>
@@ -4269,11 +3661,7 @@
           <t>佛山市顺德区陈村镇霖盛园艺场</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>92440606MA52X0XG9A</t>
-        </is>
-      </c>
+      <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
           <t>程海水</t>
@@ -4294,11 +3682,7 @@
           <t>乐昌市凯丰皮具有限公司</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>91440281MA51641G8J</t>
-        </is>
-      </c>
+      <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
           <t>赵静</t>
@@ -4319,11 +3703,7 @@
           <t>安徽蓝航电子商务有限公司</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>91340200394637716L</t>
-        </is>
-      </c>
+      <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
           <t>王凯</t>
@@ -4344,11 +3724,7 @@
           <t>常熟市服装城景莉兰服装商行</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>92320581MA1W8WJQ20</t>
-        </is>
-      </c>
+      <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
           <t>吴小军</t>
@@ -4369,11 +3745,7 @@
           <t>无锡品诺得机械科技有限公司</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>91320206MA1NP0TK4Q</t>
-        </is>
-      </c>
+      <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
         <is>
           <t>马国栋</t>
@@ -4394,11 +3766,7 @@
           <t>台州市文质广告装潢有限公司</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>91331004MA2AM4AR55</t>
-        </is>
-      </c>
+      <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
           <t>肖团华</t>
@@ -4419,11 +3787,7 @@
           <t>河北光宏通信工程有限公司</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>91130100077496251L</t>
-        </is>
-      </c>
+      <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
           <t>郭章虎</t>
@@ -4444,11 +3808,7 @@
           <t>陕西伟达气动液压有限公司</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>91610102732654325R</t>
-        </is>
-      </c>
+      <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
           <t>刘伟达</t>
@@ -4469,11 +3829,7 @@
           <t>临安鑫湖建材经营部</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>92330185MA28UNLM8E</t>
-        </is>
-      </c>
+      <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
           <t>阮士峰</t>
@@ -4494,11 +3850,7 @@
           <t>无锡纵横天下供应链管理有限公司</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>91320206MA1T614D2D</t>
-        </is>
-      </c>
+      <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
           <t>杨木花</t>
@@ -4519,11 +3871,7 @@
           <t>廊坊润浩建材有限公司</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>91131025MA09GR2P3H</t>
-        </is>
-      </c>
+      <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
           <t>刘浩</t>
@@ -4544,11 +3892,7 @@
           <t>昆明桔子二手车销售有限公司</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>91530103MA6K7P1099</t>
-        </is>
-      </c>
+      <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
           <t>郭泉</t>
@@ -4569,11 +3913,7 @@
           <t>珠海至东建筑工程有限公司</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>91440400MA534RQ183</t>
-        </is>
-      </c>
+      <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
           <t>杨建良</t>
@@ -4594,11 +3934,7 @@
           <t>东莞市迎瑞塑胶科技有限公司</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>914419003382008861</t>
-        </is>
-      </c>
+      <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
           <t>虞德高</t>
@@ -4619,11 +3955,7 @@
           <t>绍兴腾原机电设备有限公司</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>913306043554243982</t>
-        </is>
-      </c>
+      <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
           <t>王吉</t>
@@ -4644,11 +3976,7 @@
           <t>宁波鑫润涂装科技有限公司</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>91330206MA2AJR8E2G</t>
-        </is>
-      </c>
+      <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
           <t>邬宏波</t>
@@ -4669,11 +3997,7 @@
           <t>深圳市泓智科技实业有限公司</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>91440300MA5FTM7K66</t>
-        </is>
-      </c>
+      <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
           <t>李润</t>
@@ -4694,11 +4018,7 @@
           <t>杭州中天装饰材料有限公司</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>91330106070972577K</t>
-        </is>
-      </c>
+      <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
           <t>陈封云</t>
@@ -4719,11 +4039,7 @@
           <t>深圳市艺梵灯饰照明有限公司</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>91440300MA5EFRGA8B</t>
-        </is>
-      </c>
+      <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
           <t>李俊明</t>
@@ -4744,11 +4060,7 @@
           <t>唐山德广商贸有限公司</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>91130230MA07UHFL0A</t>
-        </is>
-      </c>
+      <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
           <t>郑国东</t>
@@ -4769,11 +4081,7 @@
           <t>浙江全胜实业有限公司</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>91330522MA29J4Q76T</t>
-        </is>
-      </c>
+      <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
           <t>熊安</t>
@@ -4794,11 +4102,7 @@
           <t>福清市龙田行龙摩托车店</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>92350181MA31JB2D67</t>
-        </is>
-      </c>
+      <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
           <t>薛行龙</t>
@@ -4819,11 +4123,7 @@
           <t>深圳市成开新能源汽车有限公司</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>91440300790482082M</t>
-        </is>
-      </c>
+      <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
           <t>吴孟青</t>
@@ -4844,11 +4144,7 @@
           <t>长沙泰美机械设备有限公司</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>91430102582753888F</t>
-        </is>
-      </c>
+      <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
           <t>周勇</t>
@@ -4869,11 +4165,7 @@
           <t>宁波奉化三点水文化传媒有限公司</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>91330283340627897X</t>
-        </is>
-      </c>
+      <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
           <t>江勇</t>
@@ -4894,11 +4186,7 @@
           <t>合肥市金盛机电配套设备有限公司</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>91340100704944915C</t>
-        </is>
-      </c>
+      <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
           <t>陈管</t>
@@ -4919,11 +4207,7 @@
           <t>福州创博贸易有限公司</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>91350121MA3466P63T</t>
-        </is>
-      </c>
+      <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
           <t>林淑金</t>
@@ -4944,11 +4228,7 @@
           <t>杭州军峰建材有限公司</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>91330101MA27W6CR5T</t>
-        </is>
-      </c>
+      <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
           <t>李俊峰</t>
@@ -4969,11 +4249,7 @@
           <t>杭州晶羿科技有限公司</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>91330103685808415X</t>
-        </is>
-      </c>
+      <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
           <t>余中华</t>
@@ -4994,11 +4270,7 @@
           <t>江西攀峰贸易有限公司</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>91360121054429259D</t>
-        </is>
-      </c>
+      <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
           <t>段桂根</t>
@@ -5019,11 +4291,7 @@
           <t>江苏福寿喜科技有限公司</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>91320211MA1WTXKH28</t>
-        </is>
-      </c>
+      <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
           <t>王俊方</t>
@@ -5044,11 +4312,7 @@
           <t>深圳市鸿智恒鑫科技有限公司</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>914403003062941871</t>
-        </is>
-      </c>
+      <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
           <t>赵为平</t>
@@ -5069,11 +4333,7 @@
           <t>深圳乐活家居服务有限公司</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>91440300349904002T</t>
-        </is>
-      </c>
+      <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
           <t>赵越峰</t>
@@ -5094,11 +4354,7 @@
           <t>湖南百鼎建筑劳务有限公司</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>91430121MA4PDWHK7D</t>
-        </is>
-      </c>
+      <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
           <t>汤兆阳</t>
@@ -5119,11 +4375,7 @@
           <t>南阳特顺金属科技有限公司</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>91411323MA47WXX99T</t>
-        </is>
-      </c>
+      <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
         <is>
           <t>吕荣星</t>
@@ -5144,11 +4396,7 @@
           <t>漳州康泰机电设备有限公司</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>913506810622632016</t>
-        </is>
-      </c>
+      <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
           <t>梁文才</t>
@@ -5169,11 +4417,7 @@
           <t>江西弘扬教育咨询服务有限公司</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>91360122573605525W</t>
-        </is>
-      </c>
+      <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
           <t>周建波</t>
@@ -5194,11 +4438,7 @@
           <t>江阴市祥昇纺织品有限公司</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>91320281MA1XPRUN88</t>
-        </is>
-      </c>
+      <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
           <t>费小敏</t>
@@ -5219,11 +4459,7 @@
           <t>安徽五叶草商贸有限公司</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>91341622MA2TRGDK41</t>
-        </is>
-      </c>
+      <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr">
         <is>
           <t>葛强</t>
@@ -5244,11 +4480,7 @@
           <t>绍兴金梦印花科技有限公司</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>91330602MA2889PR62</t>
-        </is>
-      </c>
+      <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
         <is>
           <t>贾文龙</t>
@@ -5269,11 +4501,7 @@
           <t>浙江沃普厨卫有限公司</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>9133068306839144XH</t>
-        </is>
-      </c>
+      <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
           <t>金国良</t>
@@ -5294,11 +4522,7 @@
           <t>东莞市佳普金属科技有限公司</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>91441900MA4WGWM59C</t>
-        </is>
-      </c>
+      <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
           <t>熊庆军</t>
@@ -5319,11 +4543,7 @@
           <t>安徽省宗鑫皮业有限公司</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>91341221MA2NGRYL04</t>
-        </is>
-      </c>
+      <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
           <t>李树华</t>
@@ -5344,11 +4564,7 @@
           <t>昆明市西山区志诚玻璃器皿经营部</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>92530112MA6MQ0NG7B</t>
-        </is>
-      </c>
+      <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
           <t>李俊</t>
@@ -5369,11 +4585,7 @@
           <t>南京继航金属材料有限公司</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>91320106797105853U</t>
-        </is>
-      </c>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
           <t>林永康</t>
@@ -5394,11 +4606,7 @@
           <t>山西义仁乐工贸有限公司</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>91140121330493098D</t>
-        </is>
-      </c>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
           <t>郭樑</t>
@@ -5419,11 +4627,7 @@
           <t>陕西长风工程机械有限责任公司</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>91610000745019072W</t>
-        </is>
-      </c>
+      <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
           <t>先锋</t>
@@ -5444,11 +4648,7 @@
           <t>献县红想试验仪器有限公司</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>91130929MA0DHE5U7H</t>
-        </is>
-      </c>
+      <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
           <t>李红想</t>
@@ -5469,11 +4669,7 @@
           <t>西安启盛交通设施工程有限公司</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>91610136MA6TXUNE7A</t>
-        </is>
-      </c>
+      <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
           <t>穆鹏超</t>
@@ -5494,11 +4690,7 @@
           <t>河南省旺锋建筑工程有限公司</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>91411700MA4114HQ2M</t>
-        </is>
-      </c>
+      <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
           <t>王锋</t>
@@ -5519,11 +4711,7 @@
           <t>苏州鸣秀平装饰装潢有限公司</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>91320508MA1R903P68</t>
-        </is>
-      </c>
+      <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
           <t>张秀平</t>
@@ -5544,11 +4732,7 @@
           <t>东莞市胜驰建筑工程有限公司</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>91441900MA4W527E5Q</t>
-        </is>
-      </c>
+      <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
         <is>
           <t>郭继宝</t>
@@ -5569,11 +4753,7 @@
           <t>湖南省宏珊建筑工程有限公司</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>91430104MA4PJX465A</t>
-        </is>
-      </c>
+      <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr">
         <is>
           <t>陈召</t>
@@ -5594,11 +4774,7 @@
           <t>汕头市茗宇设计装饰有限公司</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>914405007657090548</t>
-        </is>
-      </c>
+      <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr">
         <is>
           <t>卢锦海</t>
@@ -5619,11 +4795,7 @@
           <t>海宁市硖石喜洋洋水果行</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>92330481MA2EYE5C7F</t>
-        </is>
-      </c>
+      <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr">
         <is>
           <t>沈轶洋</t>
@@ -5644,11 +4816,7 @@
           <t>中山市维港照明电器有限公司</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>914420005724065679</t>
-        </is>
-      </c>
+      <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr">
         <is>
           <t>廖鑫旺</t>
@@ -5669,11 +4837,7 @@
           <t>台州鹏辰机械有限公司</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>91331021MA29Y2PA08</t>
-        </is>
-      </c>
+      <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr">
         <is>
           <t>郑凡鹏</t>
@@ -5694,11 +4858,7 @@
           <t>张家港凯巨进出口有限公司</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>91320592MA1YAT4K2J</t>
-        </is>
-      </c>
+      <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr">
         <is>
           <t>聂竹平</t>
@@ -5719,11 +4879,7 @@
           <t>广东博胜汽车销售服务有限公司</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>91441900MA5220YN3T</t>
-        </is>
-      </c>
+      <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
         <is>
           <t>菅照虹</t>
@@ -5744,11 +4900,7 @@
           <t>无锡新点不锈钢有限公司</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>91320205MA1Y3M6K8N</t>
-        </is>
-      </c>
+      <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr">
         <is>
           <t>潘昌凯</t>
@@ -5769,11 +4921,7 @@
           <t>舟山市启航水产食品有限公司</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>913309027450859778</t>
-        </is>
-      </c>
+      <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
           <t>夏绒球</t>
@@ -5794,11 +4942,7 @@
           <t>海南金翰建筑工程有限公司</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>91460100324107699P</t>
-        </is>
-      </c>
+      <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
           <t>孔祥天</t>
@@ -5819,11 +4963,7 @@
           <t>定州市金佰利教学设备有限公司</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>91130682308284783B</t>
-        </is>
-      </c>
+      <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
           <t>刘民生</t>
@@ -5844,11 +4984,7 @@
           <t>中德智沃（深圳）信息科技有限公司</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>91440300MA5EJHKE05</t>
-        </is>
-      </c>
+      <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
           <t>杨博</t>
@@ -5869,11 +5005,7 @@
           <t>成都泓达商务服务有限公司</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>91510107MA6DF0RN19</t>
-        </is>
-      </c>
+      <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
         <is>
           <t>周鑫</t>
@@ -5894,11 +5026,7 @@
           <t>青岛远豪摩托车销售有限公司</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>913702817875976123</t>
-        </is>
-      </c>
+      <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr">
         <is>
           <t>刘正山</t>
@@ -5919,11 +5047,7 @@
           <t>江苏易智立建设工程有限公司</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>91321302MA1Q5Y1RXQ</t>
-        </is>
-      </c>
+      <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
           <t>赵兵</t>
@@ -5944,11 +5068,7 @@
           <t>深圳市天勤共鑫电子科技有限公司</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>91440300MA5D95GP74</t>
-        </is>
-      </c>
+      <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
           <t>林德亮</t>
@@ -5969,11 +5089,7 @@
           <t>天津市嘉赫美大理石制造有限公司</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>911201106906669171</t>
-        </is>
-      </c>
+      <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
           <t>王志强</t>
@@ -5994,11 +5110,7 @@
           <t>海南显荣实业有限公司</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>91460100MA5RC4920X</t>
-        </is>
-      </c>
+      <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
           <t>王建新</t>
@@ -6019,11 +5131,7 @@
           <t>镇江尚宏礼品商贸有限公司</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>91321102MA1Q0DR42U</t>
-        </is>
-      </c>
+      <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr">
         <is>
           <t>徐秀珍</t>
@@ -6044,11 +5152,7 @@
           <t>宁波霖菲物流有限公司</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>91330201MA2GR9UM80</t>
-        </is>
-      </c>
+      <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr">
         <is>
           <t>王玉金</t>
@@ -6069,11 +5173,7 @@
           <t>西安市阎良区英力机械加工厂</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>92610114MA6W1RK2X0</t>
-        </is>
-      </c>
+      <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
           <t>赵伟超</t>
@@ -6094,11 +5194,7 @@
           <t>惠州市海夫特健身服务有限公司</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>91441302MA54K38P28</t>
-        </is>
-      </c>
+      <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
           <t>黄德铭</t>
@@ -6119,11 +5215,7 @@
           <t>四川中俊建筑劳务有限公司</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>91511304MA62921P5D</t>
-        </is>
-      </c>
+      <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
         <is>
           <t>王俊</t>
@@ -6144,11 +5236,7 @@
           <t>昆山杰安诚精密模具有限公司</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>91320583MA1MGJU17E</t>
-        </is>
-      </c>
+      <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
           <t>柴为</t>
@@ -6169,11 +5257,7 @@
           <t>西安金广源门窗装饰有限公司</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>2015-04-17</t>
-        </is>
-      </c>
+      <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
           <t>王宏强</t>
@@ -6194,11 +5278,7 @@
           <t>盐城市鑫亦汇钢材贸易有限公司</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>91320902MA1MWRAW24</t>
-        </is>
-      </c>
+      <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
           <t>胥建国</t>
@@ -6219,11 +5299,7 @@
           <t>安徽雨人工程设备有限公司</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>91340100096309378Y</t>
-        </is>
-      </c>
+      <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
           <t>黄厚显</t>
@@ -6244,11 +5320,7 @@
           <t>安徽方业建筑节能涂装工程有限公司</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>91340200MA2RXWAL8K</t>
-        </is>
-      </c>
+      <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
           <t>方东升</t>
@@ -6269,11 +5341,7 @@
           <t>宁波北仑扬意表面处理有限公司</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>91330206MA2AHTK25B</t>
-        </is>
-      </c>
+      <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr">
         <is>
           <t>张斌</t>
@@ -6294,11 +5362,7 @@
           <t>深圳市永得胜金属材料有限公司</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>91440300326483591G</t>
-        </is>
-      </c>
+      <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
         <is>
           <t>张永光</t>
@@ -6319,11 +5383,7 @@
           <t>安阳拓远商贸有限公司</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>91410527MA45MQHX8G</t>
-        </is>
-      </c>
+      <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr">
         <is>
           <t>程雪宁</t>
@@ -6344,11 +5404,7 @@
           <t>天津君腾达不锈钢销售有限公司</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>911201110668741067</t>
-        </is>
-      </c>
+      <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
           <t>靳伟</t>
@@ -6369,11 +5425,7 @@
           <t>深圳市雅文娜贸易有限公司</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>91440300335298566F</t>
-        </is>
-      </c>
+      <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr">
         <is>
           <t>张娜</t>
@@ -6394,11 +5446,7 @@
           <t>成都市鼎盛正大劳务有限公司</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>91510113MA6CNTRH4J</t>
-        </is>
-      </c>
+      <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
           <t>喻维强</t>
@@ -6419,11 +5467,7 @@
           <t>宿迁市春昊粮贸有限公司</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>91321323091470904Y</t>
-        </is>
-      </c>
+      <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr">
         <is>
           <t>吴春</t>
@@ -6444,11 +5488,7 @@
           <t>成都莎其轩家具有限公司</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>91510114MA6C58UD5M</t>
-        </is>
-      </c>
+      <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr">
         <is>
           <t>金泳霖</t>
@@ -6469,11 +5509,7 @@
           <t>杭州肯氏进出口有限公司</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>91330109685846382D</t>
-        </is>
-      </c>
+      <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr">
         <is>
           <t>徐亮亮</t>
@@ -6494,11 +5530,7 @@
           <t>西安正太网络科技有限公司</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>91610131MA6WJ2DQ12</t>
-        </is>
-      </c>
+      <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr">
         <is>
           <t>上官正中</t>
@@ -6519,11 +5551,7 @@
           <t>广西柳州展迅物流有限责任公司</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>91450200MA5KE12F9T</t>
-        </is>
-      </c>
+      <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr">
         <is>
           <t>梁莉</t>
@@ -6544,11 +5572,7 @@
           <t>荆州市百恒商贸有限公司</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>91421002MA49FHLW63</t>
-        </is>
-      </c>
+      <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr">
         <is>
           <t>位立志</t>
@@ -6569,11 +5593,7 @@
           <t>常州隆吉世华贸易有限公司</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>91320412MA1MJAMQ2A</t>
-        </is>
-      </c>
+      <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr">
         <is>
           <t>狄敏芬</t>
@@ -6594,11 +5614,7 @@
           <t>新兴县宏丰建筑装饰工程有限公司</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>91445321MA51RQYYXG</t>
-        </is>
-      </c>
+      <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr">
         <is>
           <t>谭耀进</t>
@@ -6619,11 +5635,7 @@
           <t>宇鼎供应链管理（江苏）有限公司</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>91320508064588210K</t>
-        </is>
-      </c>
+      <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr">
         <is>
           <t>刘有田</t>
@@ -6644,11 +5656,7 @@
           <t>广州崇荣数码科技有限公司</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>91440106MA59CQ2H2H</t>
-        </is>
-      </c>
+      <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr">
         <is>
           <t>何建明</t>
@@ -6669,11 +5677,7 @@
           <t>海南西游汽车销售服务有限公司</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>9146010009640851XF</t>
-        </is>
-      </c>
+      <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr">
         <is>
           <t>郭昱彤</t>
@@ -6694,11 +5698,7 @@
           <t>佛山市康城贸易有限公司</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>91440604MA4WKX4H7E</t>
-        </is>
-      </c>
+      <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr">
         <is>
           <t>蔡沅俊</t>
@@ -6719,11 +5719,7 @@
           <t>深圳市中森阳科技有限公司</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>91440300319544747L</t>
-        </is>
-      </c>
+      <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr">
         <is>
           <t>廖永平</t>
@@ -6744,11 +5740,7 @@
           <t>天津蓝豪科技有限公司</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>911201125897752036</t>
-        </is>
-      </c>
+      <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr">
         <is>
           <t>曾祥汰</t>
@@ -6769,11 +5761,7 @@
           <t>重庆信德玻璃有限公司</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>91500000MA60LUNR15</t>
-        </is>
-      </c>
+      <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr">
         <is>
           <t>余田成</t>
@@ -6794,11 +5782,7 @@
           <t>阳西县政信劳务资源管理有限公司</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>91441721MA4UR7M59T</t>
-        </is>
-      </c>
+      <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr">
         <is>
           <t>莫月珍</t>
@@ -6819,11 +5803,7 @@
           <t>佛山市顺德区鸿绣家具有限公司</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>9144060679460258XU</t>
-        </is>
-      </c>
+      <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr">
         <is>
           <t>于舒阳</t>
@@ -6844,11 +5824,7 @@
           <t>华杰通达（广州）科技服务有限公司</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>91440101MA5D5M5U23</t>
-        </is>
-      </c>
+      <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr">
         <is>
           <t>史继云</t>
@@ -6869,11 +5845,7 @@
           <t>广州精鸿建筑工程有限公司</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>91440101MA59MEDH4B</t>
-        </is>
-      </c>
+      <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr">
         <is>
           <t>邱平</t>
@@ -6894,11 +5866,7 @@
           <t>友为供应链（深圳）有限公司</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>91440300MA5G1QKK87</t>
-        </is>
-      </c>
+      <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr">
         <is>
           <t>刘世桂</t>
@@ -6919,11 +5887,7 @@
           <t>杭州吉鑫家具有限公司</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>91330109MA27Y5X9X1</t>
-        </is>
-      </c>
+      <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr">
         <is>
           <t>楼英</t>
@@ -6944,11 +5908,7 @@
           <t>靖江市楚瑞建筑装饰工程有限公司</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>91321282MA1MKTY977</t>
-        </is>
-      </c>
+      <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr">
         <is>
           <t>徐锋</t>
@@ -6969,11 +5929,7 @@
           <t>河南耕东商贸有限公司</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>91410100MA3XBR5X85</t>
-        </is>
-      </c>
+      <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr">
         <is>
           <t>殷金彪</t>
@@ -6994,11 +5950,7 @@
           <t>无锡市锐阳新材料有限公司</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>91320205MA1X3XXEXC</t>
-        </is>
-      </c>
+      <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr">
         <is>
           <t>杨兆琴</t>
@@ -7019,11 +5971,7 @@
           <t>玉环高雅眼镜有限公司</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>91331021148371596G</t>
-        </is>
-      </c>
+      <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr">
         <is>
           <t>高正钦</t>
@@ -7044,11 +5992,7 @@
           <t>德兴市金盛牧业饲料科技有限公司</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>91361181MA3639AQ5T</t>
-        </is>
-      </c>
+      <c r="C265" t="inlineStr"/>
       <c r="D265" t="inlineStr">
         <is>
           <t>曹建岩</t>
@@ -7069,11 +6013,7 @@
           <t>常州昌晟环保科技有限公司</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>91320402MA20DD1H21</t>
-        </is>
-      </c>
+      <c r="C266" t="inlineStr"/>
       <c r="D266" t="inlineStr">
         <is>
           <t>蒋成贵</t>
@@ -7094,11 +6034,7 @@
           <t>宁波沃升机械科技有限公司</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>91330212MA2H7NF61R</t>
-        </is>
-      </c>
+      <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr">
         <is>
           <t>罗栋</t>
@@ -7119,11 +6055,7 @@
           <t>洛阳驰沃汽车销售服务有限公司</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>91410300MA476W1M7R</t>
-        </is>
-      </c>
+      <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr">
         <is>
           <t>赵轩</t>
@@ -7144,11 +6076,7 @@
           <t>湖北鑫景胜联建设有限公司</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>91420113MA4KN42X17</t>
-        </is>
-      </c>
+      <c r="C269" t="inlineStr"/>
       <c r="D269" t="inlineStr">
         <is>
           <t>罗晴</t>
@@ -7169,11 +6097,7 @@
           <t>上海筹举实业有限公司</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>91310230MA1JY7L55D</t>
-        </is>
-      </c>
+      <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr">
         <is>
           <t>陈伟</t>
@@ -7194,11 +6118,7 @@
           <t>佛山市明曜光电材料有限公司</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>91440606MA52RA969T</t>
-        </is>
-      </c>
+      <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr">
         <is>
           <t>刘宁</t>
@@ -7219,11 +6139,7 @@
           <t>常州市西夏墅纳克硬质合金刀具有限公司</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>913204115794713966</t>
-        </is>
-      </c>
+      <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr">
         <is>
           <t>宋峻岭</t>
@@ -7244,11 +6160,7 @@
           <t>深圳吉源国科技有限公司</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>91440300MA5DQX7W6L</t>
-        </is>
-      </c>
+      <c r="C273" t="inlineStr"/>
       <c r="D273" t="inlineStr">
         <is>
           <t>刘志斌</t>
@@ -7269,11 +6181,7 @@
           <t>肇庆睿盈环境监测技术有限公司</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>914412000734524629</t>
-        </is>
-      </c>
+      <c r="C274" t="inlineStr"/>
       <c r="D274" t="inlineStr">
         <is>
           <t>罗建华</t>
@@ -7294,11 +6202,7 @@
           <t>宁波良基物流有限公司</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>913302053405387043</t>
-        </is>
-      </c>
+      <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr">
         <is>
           <t>叶青勇</t>
@@ -7319,11 +6223,7 @@
           <t>达州市景晟设备租赁有限公司</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>91511700MA68XMRJ2M</t>
-        </is>
-      </c>
+      <c r="C276" t="inlineStr"/>
       <c r="D276" t="inlineStr">
         <is>
           <t>李娟</t>
@@ -7344,11 +6244,7 @@
           <t>四川舟楚建筑劳务有限公司</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>91510122MA62M37K6X</t>
-        </is>
-      </c>
+      <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr">
         <is>
           <t>刘凤碧</t>
@@ -7369,11 +6265,7 @@
           <t>四川新众恒科技有限公司</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>91510105587554335F</t>
-        </is>
-      </c>
+      <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr">
         <is>
           <t>毕永伟</t>
@@ -7394,11 +6286,7 @@
           <t>成都小马奔奔物流有限公司</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>91510124MA61T6YT7H</t>
-        </is>
-      </c>
+      <c r="C279" t="inlineStr"/>
       <c r="D279" t="inlineStr">
         <is>
           <t>唐云龙</t>
@@ -7419,11 +6307,7 @@
           <t>杭州中禾润农业科技有限公司</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>91330105067896964L</t>
-        </is>
-      </c>
+      <c r="C280" t="inlineStr"/>
       <c r="D280" t="inlineStr">
         <is>
           <t>俞圣华</t>
@@ -7444,11 +6328,7 @@
           <t>广州癸锦建筑劳务有限公司</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>914401013044577120</t>
-        </is>
-      </c>
+      <c r="C281" t="inlineStr"/>
       <c r="D281" t="inlineStr">
         <is>
           <t>冯癸锦</t>
@@ -7469,11 +6349,7 @@
           <t>山东台运防水材料有限公司</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>91370783344539536A</t>
-        </is>
-      </c>
+      <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr">
         <is>
           <t>陈保泉</t>
@@ -7494,11 +6370,7 @@
           <t>河源市广源化工科技有限公司</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>914416025900755385</t>
-        </is>
-      </c>
+      <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr">
         <is>
           <t>黄火省</t>
@@ -7519,11 +6391,7 @@
           <t>宁波毅杰服饰有限公司</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>91330203MA29244KX1</t>
-        </is>
-      </c>
+      <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr">
         <is>
           <t>戴咪</t>
@@ -7544,11 +6412,7 @@
           <t>慨而慷精密科技（江苏）有限公司</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>91320583MA206J8E0W</t>
-        </is>
-      </c>
+      <c r="C285" t="inlineStr"/>
       <c r="D285" t="inlineStr">
         <is>
           <t>刘洋</t>
@@ -7569,11 +6433,7 @@
           <t>宁波煜之阳贸易有限公司</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>91330204681078267A</t>
-        </is>
-      </c>
+      <c r="C286" t="inlineStr"/>
       <c r="D286" t="inlineStr">
         <is>
           <t>董燕芬</t>
@@ -7594,11 +6454,7 @@
           <t>深圳市衡宇精密五金制品有限公司</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>91440300MA5FNHY16A</t>
-        </is>
-      </c>
+      <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr">
         <is>
           <t>宿家艮</t>
@@ -7619,11 +6475,7 @@
           <t>云南佰亮玻璃有限公司</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>91530112MA6KN7NH6A</t>
-        </is>
-      </c>
+      <c r="C288" t="inlineStr"/>
       <c r="D288" t="inlineStr">
         <is>
           <t>杨亮亮</t>
@@ -7644,11 +6496,7 @@
           <t>无锡浩盛蓝机械有限公司</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>91320206302042513K</t>
-        </is>
-      </c>
+      <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr">
         <is>
           <t>高浩祥</t>
@@ -7669,11 +6517,7 @@
           <t>淮北市韩韩贸易有限公司</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>913406003364654775</t>
-        </is>
-      </c>
+      <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr">
         <is>
           <t>韩雪</t>
@@ -7694,11 +6538,7 @@
           <t>中山市古镇瓷木灯饰门市部</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>92442000MA4W4XHQ65</t>
-        </is>
-      </c>
+      <c r="C291" t="inlineStr"/>
       <c r="D291" t="inlineStr">
         <is>
           <t>易成仁</t>
@@ -7719,11 +6559,7 @@
           <t>宁波奉化浩然金属丝材厂</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>9133028378432271XN</t>
-        </is>
-      </c>
+      <c r="C292" t="inlineStr"/>
       <c r="D292" t="inlineStr">
         <is>
           <t>顾维浩</t>
@@ -7744,11 +6580,7 @@
           <t>耒阳市俊宇箱包有限公司</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>91430481MA4Q9QX16Y</t>
-        </is>
-      </c>
+      <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr">
         <is>
           <t>潘宏山</t>
@@ -7769,11 +6601,7 @@
           <t>广西南宁市惠都汽车租赁服务有限公司</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>91450100340285364D</t>
-        </is>
-      </c>
+      <c r="C294" t="inlineStr"/>
       <c r="D294" t="inlineStr">
         <is>
           <t>杨慧波</t>
@@ -7794,11 +6622,7 @@
           <t>吉安市吉州区鸿裕隆商贸有限公司</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>91360802MA3619NUX7</t>
-        </is>
-      </c>
+      <c r="C295" t="inlineStr"/>
       <c r="D295" t="inlineStr">
         <is>
           <t>彭茶芳</t>
@@ -7819,11 +6643,7 @@
           <t>深圳市中舜机械设备有限公司</t>
         </is>
       </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>91440300MA5EUGMB6E</t>
-        </is>
-      </c>
+      <c r="C296" t="inlineStr"/>
       <c r="D296" t="inlineStr">
         <is>
           <t>熊启驰</t>
@@ -7844,11 +6664,7 @@
           <t>贵州永祥鑫美装饰工程有限公司</t>
         </is>
       </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>91520103MA6DTP4A3H</t>
-        </is>
-      </c>
+      <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr">
         <is>
           <t>李贵强</t>
@@ -7869,11 +6685,7 @@
           <t>广州远眺贸易有限公司</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>91440106304678267C</t>
-        </is>
-      </c>
+      <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
           <t>姚恒奎</t>
@@ -7894,11 +6706,7 @@
           <t>漯河市源汇区凯友电动车经营部</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>92411102MA485K9N94</t>
-        </is>
-      </c>
+      <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr">
         <is>
           <t>徐凯</t>
@@ -7919,11 +6727,7 @@
           <t>舟山市广昇网络科技信息有限公司</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>91330901MA2A2R4T7M</t>
-        </is>
-      </c>
+      <c r="C300" t="inlineStr"/>
       <c r="D300" t="inlineStr">
         <is>
           <t>贺炯</t>
@@ -7944,11 +6748,7 @@
           <t>南昌奥曼贸易有限公司</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>91360108MA39890P36</t>
-        </is>
-      </c>
+      <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr">
         <is>
           <t>柯贤勇</t>
@@ -7969,11 +6769,7 @@
           <t>太原三骏建材销售有限公司</t>
         </is>
       </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>91140109581247510M</t>
-        </is>
-      </c>
+      <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
           <t>李昌东</t>
@@ -7994,11 +6790,7 @@
           <t>广西南宁方硕能源科技有限公司</t>
         </is>
       </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>91450107MA5N0JDCXA</t>
-        </is>
-      </c>
+      <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr">
         <is>
           <t>黄福兴</t>
@@ -8019,11 +6811,7 @@
           <t>临沭县利民养殖专业合作社</t>
         </is>
       </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>9337132969442320XF</t>
-        </is>
-      </c>
+      <c r="C304" t="inlineStr"/>
       <c r="D304" t="inlineStr">
         <is>
           <t>伏祥松</t>
@@ -8044,11 +6832,7 @@
           <t>陕西中成松茂新能源有限公司</t>
         </is>
       </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>91610112MA6WYYQM01</t>
-        </is>
-      </c>
+      <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr">
         <is>
           <t>郝婷</t>
@@ -8069,11 +6853,7 @@
           <t>中山市小榄镇永逸食品商行</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>92442000MA51G6QM61</t>
-        </is>
-      </c>
+      <c r="C306" t="inlineStr"/>
       <c r="D306" t="inlineStr">
         <is>
           <t>李秋跃</t>
@@ -8094,11 +6874,7 @@
           <t>无锡市鼎赞金属制品有限公司</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>91320206MA1YX8JW4H</t>
-        </is>
-      </c>
+      <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr">
         <is>
           <t>匡赞</t>
@@ -8119,11 +6895,7 @@
           <t>宁波亿金文化传播有限公司</t>
         </is>
       </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>9133022607924148XE</t>
-        </is>
-      </c>
+      <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr">
         <is>
           <t>王晨</t>
@@ -8144,11 +6916,7 @@
           <t>张家口路浩商贸有限公司</t>
         </is>
       </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>91130701089430356U</t>
-        </is>
-      </c>
+      <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr">
         <is>
           <t>路庆浩</t>
@@ -8169,11 +6937,7 @@
           <t>江山市晟瑞防火材料有限公司</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>91330881MA29TUDP6Y</t>
-        </is>
-      </c>
+      <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
           <t>刘宝芬</t>
@@ -8194,11 +6958,7 @@
           <t>肥城鲁鑫工贸有限公司</t>
         </is>
       </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>913709835677431471</t>
-        </is>
-      </c>
+      <c r="C311" t="inlineStr"/>
       <c r="D311" t="inlineStr">
         <is>
           <t>范荣霞</t>
@@ -8219,11 +6979,7 @@
           <t>江西国义建筑工程有限公司</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>91360102MA35L14A1B</t>
-        </is>
-      </c>
+      <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr">
         <is>
           <t>郭晨阳</t>
@@ -8244,11 +7000,7 @@
           <t>天津市钰源达商贸有限公司</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>91120223MA05L33U9G</t>
-        </is>
-      </c>
+      <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr">
         <is>
           <t>张婉玉</t>
@@ -8269,11 +7021,7 @@
           <t>海口智启壹数码科技有限公司</t>
         </is>
       </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>91460100075738907M</t>
-        </is>
-      </c>
+      <c r="C314" t="inlineStr"/>
       <c r="D314" t="inlineStr">
         <is>
           <t>蒙启辉</t>
@@ -8294,11 +7042,7 @@
           <t>临沂市海棠花汽车销售服务有限公司</t>
         </is>
       </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>91371311MA3UC9XU5P</t>
-        </is>
-      </c>
+      <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr">
         <is>
           <t>高可</t>
@@ -8319,11 +7063,7 @@
           <t>河南蒲杰建设工程有限公司</t>
         </is>
       </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>91410728MA3XDTL73C</t>
-        </is>
-      </c>
+      <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr">
         <is>
           <t>张艳敏</t>
@@ -8344,11 +7084,7 @@
           <t>瑞昌市业基商贸有限公司</t>
         </is>
       </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>91360481MA3918W010</t>
-        </is>
-      </c>
+      <c r="C317" t="inlineStr"/>
       <c r="D317" t="inlineStr">
         <is>
           <t>李文</t>
@@ -8369,11 +7105,7 @@
           <t>南京湘宁光电科技有限公司</t>
         </is>
       </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>91320192MA1MH9N10F</t>
-        </is>
-      </c>
+      <c r="C318" t="inlineStr"/>
       <c r="D318" t="inlineStr">
         <is>
           <t>李玉芳</t>
@@ -8394,11 +7126,7 @@
           <t>东莞市建悦服饰有限公司</t>
         </is>
       </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>91441900MA4UJWW228</t>
-        </is>
-      </c>
+      <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr">
         <is>
           <t>黎建</t>
@@ -8419,11 +7147,7 @@
           <t>苏州德玺环保科技有限公司</t>
         </is>
       </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>91320583MA1MNLYM84</t>
-        </is>
-      </c>
+      <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr">
         <is>
           <t>李玲</t>
@@ -8444,11 +7168,7 @@
           <t>广州广诚电器科技有限公司</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>91440101MA59EGJY3A</t>
-        </is>
-      </c>
+      <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr">
         <is>
           <t>陈培</t>
@@ -8469,11 +7189,7 @@
           <t>成都市昌盾门业有限公司</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>91510107MA6CM28R6M</t>
-        </is>
-      </c>
+      <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
           <t>许雪</t>
@@ -8494,11 +7210,7 @@
           <t>长兴李家巷三盛水泥制品厂</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>92330522L840645803</t>
-        </is>
-      </c>
+      <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
           <t>席平生</t>
@@ -8519,11 +7231,7 @@
           <t>张家港市勤顺针织制衣有限公司</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>91320582590042285E</t>
-        </is>
-      </c>
+      <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr">
         <is>
           <t>钱惠刚</t>
@@ -8544,11 +7252,7 @@
           <t>佛山市典威汽车科技有限公司</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>91440605MA4UNXHJ0N</t>
-        </is>
-      </c>
+      <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr">
         <is>
           <t>刘鑫</t>
@@ -8569,11 +7273,7 @@
           <t>杭州万旺纺织绣品有限公司</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>91330109788290620U</t>
-        </is>
-      </c>
+      <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
           <t>王彩凤</t>
@@ -8594,11 +7294,7 @@
           <t>潍坊市古伦商贸有限公司</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>91370705MA3D51MY2J</t>
-        </is>
-      </c>
+      <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
           <t>吕秀娟</t>
@@ -8619,11 +7315,7 @@
           <t>广州市海升信息科技有限责任公司</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>9144011356792014XR</t>
-        </is>
-      </c>
+      <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
           <t>吴华海</t>
@@ -8644,11 +7336,7 @@
           <t>重庆博友文化用品有限公司</t>
         </is>
       </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>91500103203020589Y</t>
-        </is>
-      </c>
+      <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
           <t>张新明</t>
@@ -8669,11 +7357,7 @@
           <t>重庆市江津区仁腾建筑劳务有限公司</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>91500116MA5U8K5P8C</t>
-        </is>
-      </c>
+      <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr">
         <is>
           <t>邹开学</t>
@@ -8694,11 +7378,7 @@
           <t>连云港如风会展服务有限公司</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>91320700MA1T67CA5F</t>
-        </is>
-      </c>
+      <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
           <t>高翔</t>
@@ -8719,11 +7399,7 @@
           <t>永州市亿通建材有限公司</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>91431128MA4R833N8F</t>
-        </is>
-      </c>
+      <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
           <t>何晓伟</t>
@@ -8744,11 +7420,7 @@
           <t>广西冶优贸易有限公司</t>
         </is>
       </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>91450100MA5NRJNH18</t>
-        </is>
-      </c>
+      <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
           <t>陈凯蕾</t>
@@ -8769,11 +7441,7 @@
           <t>江苏速通自动化有限公司</t>
         </is>
       </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>91320621MA21EHT41G</t>
-        </is>
-      </c>
+      <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
           <t>王伟</t>
@@ -8794,11 +7462,7 @@
           <t>武汉哲宇文化传播有限公司</t>
         </is>
       </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>91420111MA4K4NEA87</t>
-        </is>
-      </c>
+      <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr">
         <is>
           <t>彭程</t>
@@ -8819,11 +7483,7 @@
           <t>徐州荣源木业有限公司</t>
         </is>
       </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>91320321MA1UYTRQ56</t>
-        </is>
-      </c>
+      <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
           <t>胡朋</t>
@@ -8844,11 +7504,7 @@
           <t>武汉麦特建筑科技有限公司</t>
         </is>
       </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>91420100MA4KRJUW4Y</t>
-        </is>
-      </c>
+      <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
           <t>叶志齐</t>
@@ -8869,11 +7525,7 @@
           <t>厦门欣蓬泉贸易有限公司</t>
         </is>
       </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>91350203791295756Q</t>
-        </is>
-      </c>
+      <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
           <t>林水成</t>
@@ -8894,11 +7546,7 @@
           <t>西安亿博源建材有限公司</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>91610133MA6WLCEY1J</t>
-        </is>
-      </c>
+      <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
           <t>王联</t>
@@ -8919,11 +7567,7 @@
           <t>武汉华鑫申源贸易有限公司</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>91420105MA4KWH046B</t>
-        </is>
-      </c>
+      <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
           <t>窦群娇</t>
@@ -8944,11 +7588,7 @@
           <t>荆州市付隆网络科技服务有限公司</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>91421000MA491UW114</t>
-        </is>
-      </c>
+      <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
           <t>代泽龙</t>
@@ -8969,11 +7609,7 @@
           <t>潍坊建辉工程项目管理有限公司</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>91370783MA3D4TL76D</t>
-        </is>
-      </c>
+      <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
           <t>李校俊</t>
@@ -8994,11 +7630,7 @@
           <t>深圳市丰达兴精密电路有限公司</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>91440300MA5G52C34J</t>
-        </is>
-      </c>
+      <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
           <t>刘荣辉</t>
@@ -9019,11 +7651,7 @@
           <t>惠州市众创赢能源科技有限公司</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>91441300MA54R0HX5N</t>
-        </is>
-      </c>
+      <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
           <t>刘董</t>
@@ -9044,11 +7672,7 @@
           <t>深圳绿建装饰设计有限公司</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>9144030030617461X8</t>
-        </is>
-      </c>
+      <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
           <t>周绍兰</t>
@@ -9069,11 +7693,7 @@
           <t>湖州永洁装饰材料有限责任公司</t>
         </is>
       </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>91330502MA2D19PNXP</t>
-        </is>
-      </c>
+      <c r="C346" t="inlineStr"/>
       <c r="D346" t="inlineStr">
         <is>
           <t>王洁</t>
@@ -9094,11 +7714,7 @@
           <t>浙江众升机械制造有限公司</t>
         </is>
       </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>91330183MA2CF053XC</t>
-        </is>
-      </c>
+      <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr">
         <is>
           <t>孙海明</t>
@@ -9119,11 +7735,7 @@
           <t>苏州迪赛特病理诊断中心有限公司</t>
         </is>
       </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>91320594MA1YM7HG8L</t>
-        </is>
-      </c>
+      <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr">
         <is>
           <t>李文勇</t>
@@ -9144,11 +7756,7 @@
           <t>芜湖市中茂源信息技术有限公司</t>
         </is>
       </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>91340200678926747A</t>
-        </is>
-      </c>
+      <c r="C349" t="inlineStr"/>
       <c r="D349" t="inlineStr">
         <is>
           <t>陈军</t>
@@ -9169,11 +7777,7 @@
           <t>江西众佑建设发展有限公司</t>
         </is>
       </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>91360700MA35GUCE7E</t>
-        </is>
-      </c>
+      <c r="C350" t="inlineStr"/>
       <c r="D350" t="inlineStr">
         <is>
           <t>段凯升</t>
@@ -9194,11 +7798,7 @@
           <t>厦门市伴带贸易有限公司</t>
         </is>
       </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>91350206MA32L2WG9W</t>
-        </is>
-      </c>
+      <c r="C351" t="inlineStr"/>
       <c r="D351" t="inlineStr">
         <is>
           <t>陈忻键</t>
@@ -9219,11 +7819,7 @@
           <t>广州市顺昌运输有限公司</t>
         </is>
       </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>91440103572198438P</t>
-        </is>
-      </c>
+      <c r="C352" t="inlineStr"/>
       <c r="D352" t="inlineStr">
         <is>
           <t>潘耀良</t>
@@ -9244,11 +7840,7 @@
           <t>绵阳力拓伟业劳务有限公司</t>
         </is>
       </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>91510726MA694AW5XP</t>
-        </is>
-      </c>
+      <c r="C353" t="inlineStr"/>
       <c r="D353" t="inlineStr">
         <is>
           <t>吴伟</t>
@@ -9269,11 +7861,7 @@
           <t>深圳市锦隆源喷涂工具有限公司</t>
         </is>
       </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>91440300MA5ED4A04B</t>
-        </is>
-      </c>
+      <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
         <is>
           <t>胡帅旗</t>
@@ -9294,11 +7882,7 @@
           <t>南京创斐信息技术有限公司</t>
         </is>
       </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>91320114302656099K</t>
-        </is>
-      </c>
+      <c r="C355" t="inlineStr"/>
       <c r="D355" t="inlineStr">
         <is>
           <t>梁宇斌</t>
@@ -9319,11 +7903,7 @@
           <t>镇江金成马氟塑制品有限公司</t>
         </is>
       </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>91321182685345625C</t>
-        </is>
-      </c>
+      <c r="C356" t="inlineStr"/>
       <c r="D356" t="inlineStr">
         <is>
           <t>王成颜</t>
@@ -9344,11 +7924,7 @@
           <t>广州虎诚贸易有限公司</t>
         </is>
       </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>91440101MA5AWDPB4F</t>
-        </is>
-      </c>
+      <c r="C357" t="inlineStr"/>
       <c r="D357" t="inlineStr">
         <is>
           <t>董虎成</t>
@@ -9369,11 +7945,7 @@
           <t>东莞市振东建设工程有限公司</t>
         </is>
       </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>91441900MA533C6D27</t>
-        </is>
-      </c>
+      <c r="C358" t="inlineStr"/>
       <c r="D358" t="inlineStr">
         <is>
           <t>刘新强</t>
@@ -9394,11 +7966,7 @@
           <t>南京立企兴人力资源有限公司</t>
         </is>
       </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>91320106MA1N81QR2B</t>
-        </is>
-      </c>
+      <c r="C359" t="inlineStr"/>
       <c r="D359" t="inlineStr">
         <is>
           <t>许晓天</t>
@@ -9419,11 +7987,7 @@
           <t>广西邦森渔业有限公司</t>
         </is>
       </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>91450603MA5PQDQ28M</t>
-        </is>
-      </c>
+      <c r="C360" t="inlineStr"/>
       <c r="D360" t="inlineStr">
         <is>
           <t>符亚五</t>
@@ -9444,11 +8008,7 @@
           <t>陕西子都电子科技有限公司</t>
         </is>
       </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>91610112MA6WF1JY0J</t>
-        </is>
-      </c>
+      <c r="C361" t="inlineStr"/>
       <c r="D361" t="inlineStr">
         <is>
           <t>雷利君</t>
@@ -9469,11 +8029,7 @@
           <t>海南临丰养殖发展有限公司</t>
         </is>
       </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>91460000MA5TEGPB1D</t>
-        </is>
-      </c>
+      <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr">
         <is>
           <t>黄正女</t>
@@ -9494,11 +8050,7 @@
           <t>博龙线缆（青岛）有限公司</t>
         </is>
       </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>91370213MA3M9D1C1E</t>
-        </is>
-      </c>
+      <c r="C363" t="inlineStr"/>
       <c r="D363" t="inlineStr">
         <is>
           <t>方同磊</t>
@@ -9519,11 +8071,7 @@
           <t>苏州丰麦精密电子科技有限公司</t>
         </is>
       </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>91320509MA1Y61R4X4</t>
-        </is>
-      </c>
+      <c r="C364" t="inlineStr"/>
       <c r="D364" t="inlineStr">
         <is>
           <t>崔朝丽</t>
@@ -9544,11 +8092,7 @@
           <t>遵义沃桓贸易有限公司</t>
         </is>
       </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>91520303MAAJW8KG7C</t>
-        </is>
-      </c>
+      <c r="C365" t="inlineStr"/>
       <c r="D365" t="inlineStr">
         <is>
           <t>陈卫</t>
@@ -9569,11 +8113,7 @@
           <t>安徽望博建设工程有限公司</t>
         </is>
       </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>91341500MA2UU6438J</t>
-        </is>
-      </c>
+      <c r="C366" t="inlineStr"/>
       <c r="D366" t="inlineStr">
         <is>
           <t>陈亚中</t>
@@ -9594,11 +8134,7 @@
           <t>南京企立人力资源服务有限责任公司</t>
         </is>
       </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>91320106MA20T0519X</t>
-        </is>
-      </c>
+      <c r="C367" t="inlineStr"/>
       <c r="D367" t="inlineStr">
         <is>
           <t>许晓天</t>
@@ -9619,11 +8155,7 @@
           <t>青岛柠檬数字科技有限公司</t>
         </is>
       </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>91370203099468382N</t>
-        </is>
-      </c>
+      <c r="C368" t="inlineStr"/>
       <c r="D368" t="inlineStr">
         <is>
           <t>陈欣</t>
@@ -9644,11 +8176,7 @@
           <t>平湖市悠享食品贸易商行</t>
         </is>
       </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>92330482MA2JF01C4Y</t>
-        </is>
-      </c>
+      <c r="C369" t="inlineStr"/>
       <c r="D369" t="inlineStr">
         <is>
           <t>叶贝贝</t>
@@ -9669,11 +8197,7 @@
           <t>西安市长安区旭茂建筑工程部</t>
         </is>
       </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>92610116MA6WWQ3W36</t>
-        </is>
-      </c>
+      <c r="C370" t="inlineStr"/>
       <c r="D370" t="inlineStr">
         <is>
           <t>董小均</t>
@@ -9694,11 +8218,7 @@
           <t>海南南茵园林绿化有限公司</t>
         </is>
       </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>91460200MA5RJUJL99</t>
-        </is>
-      </c>
+      <c r="C371" t="inlineStr"/>
       <c r="D371" t="inlineStr">
         <is>
           <t>杨阳</t>
@@ -9719,11 +8239,7 @@
           <t>山东德义泰金属制品有限公司</t>
         </is>
       </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>91371500MA3MC2YA1R</t>
-        </is>
-      </c>
+      <c r="C372" t="inlineStr"/>
       <c r="D372" t="inlineStr">
         <is>
           <t>李月孔</t>
@@ -9744,11 +8260,7 @@
           <t>淮安福志新型建材有限公司</t>
         </is>
       </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>91320804MA20E61N8F</t>
-        </is>
-      </c>
+      <c r="C373" t="inlineStr"/>
       <c r="D373" t="inlineStr">
         <is>
           <t>杨梦乐</t>
@@ -9769,11 +8281,7 @@
           <t>广东晟捷信息科技有限公司</t>
         </is>
       </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>91440101MA5ARJG65J</t>
-        </is>
-      </c>
+      <c r="C374" t="inlineStr"/>
       <c r="D374" t="inlineStr">
         <is>
           <t>张宇</t>
@@ -9794,11 +8302,7 @@
           <t>福建省泉州思源机械有限公司</t>
         </is>
       </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>91350502097636960C</t>
-        </is>
-      </c>
+      <c r="C375" t="inlineStr"/>
       <c r="D375" t="inlineStr">
         <is>
           <t>唐思源</t>
@@ -9819,11 +8323,7 @@
           <t>辉南县泓兴牧业有限公司</t>
         </is>
       </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>91220523MA17R1NK5H</t>
-        </is>
-      </c>
+      <c r="C376" t="inlineStr"/>
       <c r="D376" t="inlineStr">
         <is>
           <t>曲春丽</t>
@@ -9844,11 +8344,7 @@
           <t>西安天航伊科工程咨询有限公司</t>
         </is>
       </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>916100006786426480</t>
-        </is>
-      </c>
+      <c r="C377" t="inlineStr"/>
       <c r="D377" t="inlineStr">
         <is>
           <t>李慧民</t>
@@ -9869,11 +8365,7 @@
           <t>山西盛德石油科技有限公司</t>
         </is>
       </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>91141032MA0KF46815</t>
-        </is>
-      </c>
+      <c r="C378" t="inlineStr"/>
       <c r="D378" t="inlineStr">
         <is>
           <t>邱勇</t>
@@ -9894,11 +8386,7 @@
           <t>深圳市追猎者智能科技有限公司</t>
         </is>
       </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>91440300MA5EUKC54L</t>
-        </is>
-      </c>
+      <c r="C379" t="inlineStr"/>
       <c r="D379" t="inlineStr">
         <is>
           <t>刘祥</t>
@@ -9919,11 +8407,7 @@
           <t>四川康驰体育用品有限公司</t>
         </is>
       </c>
-      <c r="C380" t="inlineStr">
-        <is>
-          <t>915100007891101693</t>
-        </is>
-      </c>
+      <c r="C380" t="inlineStr"/>
       <c r="D380" t="inlineStr">
         <is>
           <t>张慧明</t>
@@ -9944,11 +8428,7 @@
           <t>西安弘康环保科技有限公司</t>
         </is>
       </c>
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>916101043111751312</t>
-        </is>
-      </c>
+      <c r="C381" t="inlineStr"/>
       <c r="D381" t="inlineStr">
         <is>
           <t>边旭斌</t>
@@ -9969,11 +8449,7 @@
           <t>安徽祥友劳务服务有限公司</t>
         </is>
       </c>
-      <c r="C382" t="inlineStr">
-        <is>
-          <t>91340123MA2RWMRX17</t>
-        </is>
-      </c>
+      <c r="C382" t="inlineStr"/>
       <c r="D382" t="inlineStr">
         <is>
           <t>卫东</t>
@@ -9994,11 +8470,7 @@
           <t>昆明市呈贡区安翔毅峰日用百货经营部</t>
         </is>
       </c>
-      <c r="C383" t="inlineStr">
-        <is>
-          <t>92530121MA6P9K3G4H</t>
-        </is>
-      </c>
+      <c r="C383" t="inlineStr"/>
       <c r="D383" t="inlineStr">
         <is>
           <t>李青春</t>
@@ -10019,11 +8491,7 @@
           <t>浙江灵播科技有限公司</t>
         </is>
       </c>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>91330604MA2BEYDA4E</t>
-        </is>
-      </c>
+      <c r="C384" t="inlineStr"/>
       <c r="D384" t="inlineStr">
         <is>
           <t>钱仁良</t>
@@ -10044,11 +8512,7 @@
           <t>深圳市三化通讯技术有限公司</t>
         </is>
       </c>
-      <c r="C385" t="inlineStr">
-        <is>
-          <t>91440300398479591Y</t>
-        </is>
-      </c>
+      <c r="C385" t="inlineStr"/>
       <c r="D385" t="inlineStr">
         <is>
           <t>钱磊</t>
@@ -10069,11 +8533,7 @@
           <t>昆明市官渡区海煊阀门经营部</t>
         </is>
       </c>
-      <c r="C386" t="inlineStr">
-        <is>
-          <t>92530111MA6P2LMY71</t>
-        </is>
-      </c>
+      <c r="C386" t="inlineStr"/>
       <c r="D386" t="inlineStr">
         <is>
           <t>阮海波</t>
@@ -10094,11 +8554,7 @@
           <t>河北舜康电子科技有限公司</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr">
-        <is>
-          <t>91130105091149707W</t>
-        </is>
-      </c>
+      <c r="C387" t="inlineStr"/>
       <c r="D387" t="inlineStr">
         <is>
           <t>包海明</t>
@@ -10119,11 +8575,7 @@
           <t>北京圣渊文化传播有限公司</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>91110101MA00HF916U</t>
-        </is>
-      </c>
+      <c r="C388" t="inlineStr"/>
       <c r="D388" t="inlineStr">
         <is>
           <t>刘欣</t>
@@ -10144,11 +8596,7 @@
           <t>泰兴市淞上源科技有限公司</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>91321283MA252HB291</t>
-        </is>
-      </c>
+      <c r="C389" t="inlineStr"/>
       <c r="D389" t="inlineStr">
         <is>
           <t>薛松</t>
@@ -10169,11 +8617,7 @@
           <t>湖南邦远建设工程有限公司</t>
         </is>
       </c>
-      <c r="C390" t="inlineStr">
-        <is>
-          <t>91430500MA4RBUMB0U</t>
-        </is>
-      </c>
+      <c r="C390" t="inlineStr"/>
       <c r="D390" t="inlineStr">
         <is>
           <t>罗凯</t>
@@ -10194,11 +8638,7 @@
           <t>龙岩市华坤装卸搬运有限公司</t>
         </is>
       </c>
-      <c r="C391" t="inlineStr">
-        <is>
-          <t>91350802MA33BQGG9R</t>
-        </is>
-      </c>
+      <c r="C391" t="inlineStr"/>
       <c r="D391" t="inlineStr">
         <is>
           <t>黄启波</t>
@@ -10219,11 +8659,7 @@
           <t>广州棋诺电子有限公司</t>
         </is>
       </c>
-      <c r="C392" t="inlineStr">
-        <is>
-          <t>91440101088115995Y</t>
-        </is>
-      </c>
+      <c r="C392" t="inlineStr"/>
       <c r="D392" t="inlineStr">
         <is>
           <t>全日珍</t>
@@ -10244,11 +8680,7 @@
           <t>湖北越盛水产食品有限公司</t>
         </is>
       </c>
-      <c r="C393" t="inlineStr">
-        <is>
-          <t>91421023760688311M</t>
-        </is>
-      </c>
+      <c r="C393" t="inlineStr"/>
       <c r="D393" t="inlineStr">
         <is>
           <t>张小芬</t>
@@ -10269,11 +8701,7 @@
           <t>广西胜晟商贸有限公司</t>
         </is>
       </c>
-      <c r="C394" t="inlineStr">
-        <is>
-          <t>91450103MA5QK5MJ8D</t>
-        </is>
-      </c>
+      <c r="C394" t="inlineStr"/>
       <c r="D394" t="inlineStr">
         <is>
           <t>范卫新</t>
@@ -10294,11 +8722,7 @@
           <t>深圳匡本实业有限公司</t>
         </is>
       </c>
-      <c r="C395" t="inlineStr">
-        <is>
-          <t>91440300MA5GHWRX2R</t>
-        </is>
-      </c>
+      <c r="C395" t="inlineStr"/>
       <c r="D395" t="inlineStr">
         <is>
           <t>李永欢</t>
@@ -10319,11 +8743,7 @@
           <t>广东梓锋环保科技有限公司</t>
         </is>
       </c>
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>91440606MA54R05F1H</t>
-        </is>
-      </c>
+      <c r="C396" t="inlineStr"/>
       <c r="D396" t="inlineStr">
         <is>
           <t>黄晓芬</t>
@@ -10344,11 +8764,7 @@
           <t>广州芊芳钰贸易有限公司</t>
         </is>
       </c>
-      <c r="C397" t="inlineStr">
-        <is>
-          <t>91440101304470933D</t>
-        </is>
-      </c>
+      <c r="C397" t="inlineStr"/>
       <c r="D397" t="inlineStr">
         <is>
           <t>刘丽</t>
@@ -10369,11 +8785,7 @@
           <t>宁波市鄞州五乡林铭通风设备厂</t>
         </is>
       </c>
-      <c r="C398" t="inlineStr">
-        <is>
-          <t>92330212MA2849HJ8P</t>
-        </is>
-      </c>
+      <c r="C398" t="inlineStr"/>
       <c r="D398" t="inlineStr">
         <is>
           <t>朱森林</t>
@@ -10394,11 +8806,7 @@
           <t>张家港智卓船用机械设备有限公司</t>
         </is>
       </c>
-      <c r="C399" t="inlineStr">
-        <is>
-          <t>91320582MA21849469</t>
-        </is>
-      </c>
+      <c r="C399" t="inlineStr"/>
       <c r="D399" t="inlineStr">
         <is>
           <t>蔡卫东</t>
@@ -10419,11 +8827,7 @@
           <t>无锡市鑫君诚供应链管理有限公司</t>
         </is>
       </c>
-      <c r="C400" t="inlineStr">
-        <is>
-          <t>91320206MA1WBM9H4G</t>
-        </is>
-      </c>
+      <c r="C400" t="inlineStr"/>
       <c r="D400" t="inlineStr">
         <is>
           <t>杨卓君</t>
@@ -10444,11 +8848,7 @@
           <t>山西万垚环境工程有限公司</t>
         </is>
       </c>
-      <c r="C401" t="inlineStr">
-        <is>
-          <t>91149900MA0K9L1247</t>
-        </is>
-      </c>
+      <c r="C401" t="inlineStr"/>
       <c r="D401" t="inlineStr">
         <is>
           <t>杨大云</t>
@@ -10469,11 +8869,7 @@
           <t>深圳土佬哥密封件有限公司</t>
         </is>
       </c>
-      <c r="C402" t="inlineStr">
-        <is>
-          <t>91440300311687575U</t>
-        </is>
-      </c>
+      <c r="C402" t="inlineStr"/>
       <c r="D402" t="inlineStr">
         <is>
           <t>杜文顺</t>
@@ -10494,11 +8890,7 @@
           <t>广州古禾供应链有限公司</t>
         </is>
       </c>
-      <c r="C403" t="inlineStr">
-        <is>
-          <t>91440101MA9W1D7G9F</t>
-        </is>
-      </c>
+      <c r="C403" t="inlineStr"/>
       <c r="D403" t="inlineStr">
         <is>
           <t>苏盛金</t>
@@ -10519,11 +8911,7 @@
           <t>中科（广东）数据服务有限公司</t>
         </is>
       </c>
-      <c r="C404" t="inlineStr">
-        <is>
-          <t>91440101MA5CCHR009</t>
-        </is>
-      </c>
+      <c r="C404" t="inlineStr"/>
       <c r="D404" t="inlineStr">
         <is>
           <t>彭文钦</t>
@@ -10544,11 +8932,7 @@
           <t>湖北天沛哲明建设工程有限公司</t>
         </is>
       </c>
-      <c r="C405" t="inlineStr">
-        <is>
-          <t>91420113MA4KYKXQ52</t>
-        </is>
-      </c>
+      <c r="C405" t="inlineStr"/>
       <c r="D405" t="inlineStr">
         <is>
           <t>张天明</t>
@@ -10569,11 +8953,7 @@
           <t>湖北松纯建设工程有限公司</t>
         </is>
       </c>
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>91420112MA49E4AU95</t>
-        </is>
-      </c>
+      <c r="C406" t="inlineStr"/>
       <c r="D406" t="inlineStr">
         <is>
           <t>龚保华</t>
@@ -10594,11 +8974,7 @@
           <t>汝阳县城关旋旋不锈钢加工店</t>
         </is>
       </c>
-      <c r="C407" t="inlineStr">
-        <is>
-          <t>92410326MA416U368L</t>
-        </is>
-      </c>
+      <c r="C407" t="inlineStr"/>
       <c r="D407" t="inlineStr">
         <is>
           <t>牛相乐</t>
@@ -10619,11 +8995,7 @@
           <t>惠州市鑫发利五金制品有限公司</t>
         </is>
       </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>91441303MA52Y3C59G</t>
-        </is>
-      </c>
+      <c r="C408" t="inlineStr"/>
       <c r="D408" t="inlineStr">
         <is>
           <t>蓝荣立</t>
@@ -10644,11 +9016,7 @@
           <t>上银优势（成都）科技有限公司</t>
         </is>
       </c>
-      <c r="C409" t="inlineStr">
-        <is>
-          <t>91510124MAACLCJ201</t>
-        </is>
-      </c>
+      <c r="C409" t="inlineStr"/>
       <c r="D409" t="inlineStr">
         <is>
           <t>许吴东</t>
@@ -10669,11 +9037,7 @@
           <t>武汉华昱天晟电力工程有限公司</t>
         </is>
       </c>
-      <c r="C410" t="inlineStr">
-        <is>
-          <t>91420112MA4KPQM426</t>
-        </is>
-      </c>
+      <c r="C410" t="inlineStr"/>
       <c r="D410" t="inlineStr">
         <is>
           <t>莫周连</t>
@@ -10694,11 +9058,7 @@
           <t>杨凌源泰牧业有限公司</t>
         </is>
       </c>
-      <c r="C411" t="inlineStr">
-        <is>
-          <t>91610403MA6THD3529</t>
-        </is>
-      </c>
+      <c r="C411" t="inlineStr"/>
       <c r="D411" t="inlineStr">
         <is>
           <t>赵玉鹏</t>
@@ -10719,11 +9079,7 @@
           <t>湖北中台塑业有限公司</t>
         </is>
       </c>
-      <c r="C412" t="inlineStr">
-        <is>
-          <t>91421182343477396X</t>
-        </is>
-      </c>
+      <c r="C412" t="inlineStr"/>
       <c r="D412" t="inlineStr">
         <is>
           <t>王建兵</t>
@@ -10744,11 +9100,7 @@
           <t>台州市文兴物流有限公司</t>
         </is>
       </c>
-      <c r="C413" t="inlineStr">
-        <is>
-          <t>91331004MA2HHXTC1X</t>
-        </is>
-      </c>
+      <c r="C413" t="inlineStr"/>
       <c r="D413" t="inlineStr">
         <is>
           <t>王文兴</t>
@@ -10769,11 +9121,7 @@
           <t>广西斌辉建筑劳务有限公司</t>
         </is>
       </c>
-      <c r="C414" t="inlineStr">
-        <is>
-          <t>91450100MA5L4HJ55J</t>
-        </is>
-      </c>
+      <c r="C414" t="inlineStr"/>
       <c r="D414" t="inlineStr">
         <is>
           <t>谢厚斌</t>
@@ -10794,11 +9142,7 @@
           <t>遵义饶顺矿业有限公司</t>
         </is>
       </c>
-      <c r="C415" t="inlineStr">
-        <is>
-          <t>91520302MA6HM8CB1W</t>
-        </is>
-      </c>
+      <c r="C415" t="inlineStr"/>
       <c r="D415" t="inlineStr">
         <is>
           <t>郑录雄</t>
@@ -10819,11 +9163,7 @@
           <t>佛山市康沃日用品实业有限公司</t>
         </is>
       </c>
-      <c r="C416" t="inlineStr">
-        <is>
-          <t>91440605680612640N</t>
-        </is>
-      </c>
+      <c r="C416" t="inlineStr"/>
       <c r="D416" t="inlineStr">
         <is>
           <t>袁敏仪</t>
@@ -10844,11 +9184,7 @@
           <t>广西富嘉多机械施工工程有限公司</t>
         </is>
       </c>
-      <c r="C417" t="inlineStr">
-        <is>
-          <t>914504007087779232</t>
-        </is>
-      </c>
+      <c r="C417" t="inlineStr"/>
       <c r="D417" t="inlineStr">
         <is>
           <t>杨智豪</t>
@@ -10869,11 +9205,7 @@
           <t>广东和旺建筑有限公司</t>
         </is>
       </c>
-      <c r="C418" t="inlineStr">
-        <is>
-          <t>91441284MA555PN61D</t>
-        </is>
-      </c>
+      <c r="C418" t="inlineStr"/>
       <c r="D418" t="inlineStr">
         <is>
           <t>唐伟峰</t>
@@ -10894,11 +9226,7 @@
           <t>中山市永烁包装材料有限公司</t>
         </is>
       </c>
-      <c r="C419" t="inlineStr">
-        <is>
-          <t>91442000MA54UTJ46X</t>
-        </is>
-      </c>
+      <c r="C419" t="inlineStr"/>
       <c r="D419" t="inlineStr">
         <is>
           <t>谢雪斌</t>
@@ -10919,11 +9247,7 @@
           <t>苏州睿霆物流有限公司</t>
         </is>
       </c>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t>91320592MA1X7WUH4X</t>
-        </is>
-      </c>
+      <c r="C420" t="inlineStr"/>
       <c r="D420" t="inlineStr">
         <is>
           <t>朱许祥</t>
@@ -10944,11 +9268,7 @@
           <t>苏州华艺匠机械有限公司</t>
         </is>
       </c>
-      <c r="C421" t="inlineStr">
-        <is>
-          <t>91320506MA1MULG362</t>
-        </is>
-      </c>
+      <c r="C421" t="inlineStr"/>
       <c r="D421" t="inlineStr">
         <is>
           <t>毛悦先</t>
@@ -10969,11 +9289,7 @@
           <t>赣州汇明木业有限公司</t>
         </is>
       </c>
-      <c r="C422" t="inlineStr">
-        <is>
-          <t>91360782314720916J</t>
-        </is>
-      </c>
+      <c r="C422" t="inlineStr"/>
       <c r="D422" t="inlineStr">
         <is>
           <t>曾明兰</t>
@@ -10994,11 +9310,7 @@
           <t>昆明市科高路书羽童鞋店</t>
         </is>
       </c>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>92530100MA6L46531C</t>
-        </is>
-      </c>
+      <c r="C423" t="inlineStr"/>
       <c r="D423" t="inlineStr">
         <is>
           <t>汪兴成</t>
@@ -11019,11 +9331,7 @@
           <t>深圳市宝弘土方工程有限公司</t>
         </is>
       </c>
-      <c r="C424" t="inlineStr">
-        <is>
-          <t>91440300MA5GF8BH31</t>
-        </is>
-      </c>
+      <c r="C424" t="inlineStr"/>
       <c r="D424" t="inlineStr">
         <is>
           <t>钱日焕</t>
@@ -11044,11 +9352,7 @@
           <t>佛山楷翔科技有限公司</t>
         </is>
       </c>
-      <c r="C425" t="inlineStr">
-        <is>
-          <t>91440605MA532P5N8H</t>
-        </is>
-      </c>
+      <c r="C425" t="inlineStr"/>
       <c r="D425" t="inlineStr">
         <is>
           <t>王东影</t>
@@ -11069,11 +9373,7 @@
           <t>武汉鑫锦瑞工程机械有限公司</t>
         </is>
       </c>
-      <c r="C426" t="inlineStr">
-        <is>
-          <t>91420115MA49H3DF95</t>
-        </is>
-      </c>
+      <c r="C426" t="inlineStr"/>
       <c r="D426" t="inlineStr">
         <is>
           <t>刘国华</t>
@@ -11094,11 +9394,7 @@
           <t>扬州怀德新材料有限公司</t>
         </is>
       </c>
-      <c r="C427" t="inlineStr">
-        <is>
-          <t>91321081MA26XXD178</t>
-        </is>
-      </c>
+      <c r="C427" t="inlineStr"/>
       <c r="D427" t="inlineStr">
         <is>
           <t>高飞</t>
@@ -11119,11 +9415,7 @@
           <t>苏州远牧电子科技有限公司</t>
         </is>
       </c>
-      <c r="C428" t="inlineStr">
-        <is>
-          <t>91320505313921281D</t>
-        </is>
-      </c>
+      <c r="C428" t="inlineStr"/>
       <c r="D428" t="inlineStr">
         <is>
           <t>吴润惠</t>
@@ -11144,11 +9436,7 @@
           <t>郑州钧钢物资有限公司</t>
         </is>
       </c>
-      <c r="C429" t="inlineStr">
-        <is>
-          <t>914101046780769575</t>
-        </is>
-      </c>
+      <c r="C429" t="inlineStr"/>
       <c r="D429" t="inlineStr">
         <is>
           <t>何启明</t>
@@ -11169,11 +9457,7 @@
           <t>永鑫金属（天津）有限公司</t>
         </is>
       </c>
-      <c r="C430" t="inlineStr">
-        <is>
-          <t>91120112MA07AU2D9E</t>
-        </is>
-      </c>
+      <c r="C430" t="inlineStr"/>
       <c r="D430" t="inlineStr">
         <is>
           <t>阮勇勇</t>
@@ -11194,11 +9478,7 @@
           <t>南京鑫广道路工程有限公司</t>
         </is>
       </c>
-      <c r="C431" t="inlineStr">
-        <is>
-          <t>91320117MA22EGJY1N</t>
-        </is>
-      </c>
+      <c r="C431" t="inlineStr"/>
       <c r="D431" t="inlineStr">
         <is>
           <t>何青青</t>
@@ -11219,11 +9499,7 @@
           <t>佛山市南海区型雷理发店</t>
         </is>
       </c>
-      <c r="C432" t="inlineStr">
-        <is>
-          <t>92440605MA538M141F</t>
-        </is>
-      </c>
+      <c r="C432" t="inlineStr"/>
       <c r="D432" t="inlineStr">
         <is>
           <t>雷万清</t>
@@ -11244,11 +9520,7 @@
           <t>佛山市零度智能科技有限公司</t>
         </is>
       </c>
-      <c r="C433" t="inlineStr">
-        <is>
-          <t>91440606553643807H</t>
-        </is>
-      </c>
+      <c r="C433" t="inlineStr"/>
       <c r="D433" t="inlineStr">
         <is>
           <t>唐志军</t>
@@ -11269,11 +9541,7 @@
           <t>南京锦扬工程机械租赁有限公司</t>
         </is>
       </c>
-      <c r="C434" t="inlineStr">
-        <is>
-          <t>91320191MA1Y7FHH6W</t>
-        </is>
-      </c>
+      <c r="C434" t="inlineStr"/>
       <c r="D434" t="inlineStr">
         <is>
           <t>娄静</t>
@@ -11294,11 +9562,7 @@
           <t>厦门市同安区兴和胜汽车维修场</t>
         </is>
       </c>
-      <c r="C435" t="inlineStr">
-        <is>
-          <t>92350212MA311ANY04</t>
-        </is>
-      </c>
+      <c r="C435" t="inlineStr"/>
       <c r="D435" t="inlineStr">
         <is>
           <t>江水波</t>
@@ -11319,11 +9583,7 @@
           <t>普洱力虹工程建设有限公司</t>
         </is>
       </c>
-      <c r="C436" t="inlineStr">
-        <is>
-          <t>915308023163862451</t>
-        </is>
-      </c>
+      <c r="C436" t="inlineStr"/>
       <c r="D436" t="inlineStr">
         <is>
           <t>杨国寿</t>
@@ -11344,11 +9604,7 @@
           <t>开化星空建材商行</t>
         </is>
       </c>
-      <c r="C437" t="inlineStr">
-        <is>
-          <t>92330824MA29U4LA9F</t>
-        </is>
-      </c>
+      <c r="C437" t="inlineStr"/>
       <c r="D437" t="inlineStr">
         <is>
           <t>余宝星</t>
@@ -11369,11 +9625,7 @@
           <t>深圳市蒙特尔家私有限公司</t>
         </is>
       </c>
-      <c r="C438" t="inlineStr">
-        <is>
-          <t>91440300561538636F</t>
-        </is>
-      </c>
+      <c r="C438" t="inlineStr"/>
       <c r="D438" t="inlineStr">
         <is>
           <t>罗国键</t>
@@ -11394,11 +9646,7 @@
           <t>贵州茂鑫恒源物资有限公司</t>
         </is>
       </c>
-      <c r="C439" t="inlineStr">
-        <is>
-          <t>91520102308782205C</t>
-        </is>
-      </c>
+      <c r="C439" t="inlineStr"/>
       <c r="D439" t="inlineStr">
         <is>
           <t>高太维</t>
@@ -11419,11 +9667,7 @@
           <t>舟山国联石油化工有限公司</t>
         </is>
       </c>
-      <c r="C440" t="inlineStr">
-        <is>
-          <t>913309013553502887</t>
-        </is>
-      </c>
+      <c r="C440" t="inlineStr"/>
       <c r="D440" t="inlineStr">
         <is>
           <t>谈世海</t>
@@ -11444,11 +9688,7 @@
           <t>海口美兰区鑫智颜百货商行</t>
         </is>
       </c>
-      <c r="C441" t="inlineStr">
-        <is>
-          <t>92460000MABLJAN70N</t>
-        </is>
-      </c>
+      <c r="C441" t="inlineStr"/>
       <c r="D441" t="inlineStr">
         <is>
           <t>危小龙</t>
@@ -11469,11 +9709,7 @@
           <t>江苏蓝煜电力工程科技有限公司</t>
         </is>
       </c>
-      <c r="C442" t="inlineStr">
-        <is>
-          <t>91320205MA254EBA7H</t>
-        </is>
-      </c>
+      <c r="C442" t="inlineStr"/>
       <c r="D442" t="inlineStr">
         <is>
           <t>马红亮</t>
@@ -11494,11 +9730,7 @@
           <t>四川康尔唐生物科技有限公司</t>
         </is>
       </c>
-      <c r="C443" t="inlineStr">
-        <is>
-          <t>91510113MA6CHHBAXH</t>
-        </is>
-      </c>
+      <c r="C443" t="inlineStr"/>
       <c r="D443" t="inlineStr">
         <is>
           <t>姚小红</t>
@@ -11519,11 +9751,7 @@
           <t>福建省建峰建设有限公司</t>
         </is>
       </c>
-      <c r="C444" t="inlineStr">
-        <is>
-          <t>91350200761737744W</t>
-        </is>
-      </c>
+      <c r="C444" t="inlineStr"/>
       <c r="D444" t="inlineStr">
         <is>
           <t>吴金应</t>
@@ -11544,11 +9772,7 @@
           <t>厦门鑫宇富建设发展有限公司</t>
         </is>
       </c>
-      <c r="C445" t="inlineStr">
-        <is>
-          <t>91350203MA8RK8D93G</t>
-        </is>
-      </c>
+      <c r="C445" t="inlineStr"/>
       <c r="D445" t="inlineStr">
         <is>
           <t>陈玉明</t>
@@ -11569,11 +9793,7 @@
           <t>北京九鼎图业科技有限公司</t>
         </is>
       </c>
-      <c r="C446" t="inlineStr">
-        <is>
-          <t>911101086819940703</t>
-        </is>
-      </c>
+      <c r="C446" t="inlineStr"/>
       <c r="D446" t="inlineStr">
         <is>
           <t>吴杰</t>
@@ -11594,11 +9814,7 @@
           <t>益阳市赫山区瑞祥竹木加工厂</t>
         </is>
       </c>
-      <c r="C447" t="inlineStr">
-        <is>
-          <t>91430903MA4QARQQ4X</t>
-        </is>
-      </c>
+      <c r="C447" t="inlineStr"/>
       <c r="D447" t="inlineStr">
         <is>
           <t>曾瑞祥</t>
@@ -11619,11 +9835,7 @@
           <t>湖北叁晟建设工程有限公司</t>
         </is>
       </c>
-      <c r="C448" t="inlineStr">
-        <is>
-          <t>91420112MA49BY6M3A</t>
-        </is>
-      </c>
+      <c r="C448" t="inlineStr"/>
       <c r="D448" t="inlineStr">
         <is>
           <t>喻伟</t>
@@ -11644,11 +9856,7 @@
           <t>金华市芳华包装有限公司</t>
         </is>
       </c>
-      <c r="C449" t="inlineStr">
-        <is>
-          <t>91330703MA2DBR217G</t>
-        </is>
-      </c>
+      <c r="C449" t="inlineStr"/>
       <c r="D449" t="inlineStr">
         <is>
           <t>胡盛胜</t>
@@ -11669,11 +9877,7 @@
           <t>深圳市鑫卫供应链有限公司</t>
         </is>
       </c>
-      <c r="C450" t="inlineStr">
-        <is>
-          <t>91440300MA5GB5KYXP</t>
-        </is>
-      </c>
+      <c r="C450" t="inlineStr"/>
       <c r="D450" t="inlineStr">
         <is>
           <t>彭贵</t>
@@ -11694,11 +9898,7 @@
           <t>四川省百汇祥贸易有限公司</t>
         </is>
       </c>
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>91510107572251876H</t>
-        </is>
-      </c>
+      <c r="C451" t="inlineStr"/>
       <c r="D451" t="inlineStr">
         <is>
           <t>冯芸</t>
@@ -11719,11 +9919,7 @@
           <t>如皋通闽石英砂有限公司</t>
         </is>
       </c>
-      <c r="C452" t="inlineStr">
-        <is>
-          <t>91320682MA20714B7C</t>
-        </is>
-      </c>
+      <c r="C452" t="inlineStr"/>
       <c r="D452" t="inlineStr">
         <is>
           <t>施夏影</t>
@@ -11744,11 +9940,7 @@
           <t>佛山市领晖贸易有限公司</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
-        <is>
-          <t>91440604668180961N</t>
-        </is>
-      </c>
+      <c r="C453" t="inlineStr"/>
       <c r="D453" t="inlineStr">
         <is>
           <t>林超平</t>
@@ -11769,11 +9961,7 @@
           <t>长沙天一测绘有限公司</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>91430111MA4RHY8J0N</t>
-        </is>
-      </c>
+      <c r="C454" t="inlineStr"/>
       <c r="D454" t="inlineStr">
         <is>
           <t>胡晓玲</t>
@@ -11794,11 +9982,7 @@
           <t>江阴市申港梓焱家庭农场</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
-        <is>
-          <t>92320281MA1NTEDT69</t>
-        </is>
-      </c>
+      <c r="C455" t="inlineStr"/>
       <c r="D455" t="inlineStr">
         <is>
           <t>何晓东</t>
@@ -11819,11 +10003,7 @@
           <t>棱镜智达信息技术（上海）有限公司</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
-        <is>
-          <t>91310114342327863P</t>
-        </is>
-      </c>
+      <c r="C456" t="inlineStr"/>
       <c r="D456" t="inlineStr">
         <is>
           <t>刘任华</t>
@@ -11844,11 +10024,7 @@
           <t>深圳市爱视尔科技有限公司</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
-        <is>
-          <t>91440300094427725F</t>
-        </is>
-      </c>
+      <c r="C457" t="inlineStr"/>
       <c r="D457" t="inlineStr">
         <is>
           <t>张小梅</t>
@@ -11869,11 +10045,7 @@
           <t>苏州西斯朗精密制造有限公司</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>91320508MA20J39J53</t>
-        </is>
-      </c>
+      <c r="C458" t="inlineStr"/>
       <c r="D458" t="inlineStr">
         <is>
           <t>孙嘉</t>
@@ -11894,11 +10066,7 @@
           <t>山西转型综改示范区唐槐园区亚羽网络技术服务有限公司</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>91149900MA0K5QKL2P</t>
-        </is>
-      </c>
+      <c r="C459" t="inlineStr"/>
       <c r="D459" t="inlineStr">
         <is>
           <t>苏振南</t>
@@ -11919,11 +10087,7 @@
           <t>深圳市博闻实业有限公司</t>
         </is>
       </c>
-      <c r="C460" t="inlineStr">
-        <is>
-          <t>91440300MA5EKFGC97</t>
-        </is>
-      </c>
+      <c r="C460" t="inlineStr"/>
       <c r="D460" t="inlineStr">
         <is>
           <t>沈孝璇</t>
@@ -11944,11 +10108,7 @@
           <t>重庆诚至达科技有限公司</t>
         </is>
       </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>91500107MA6024N229</t>
-        </is>
-      </c>
+      <c r="C461" t="inlineStr"/>
       <c r="D461" t="inlineStr">
         <is>
           <t>胡正举</t>
@@ -11969,11 +10129,7 @@
           <t>深圳市谷德景观园林有限公司</t>
         </is>
       </c>
-      <c r="C462" t="inlineStr">
-        <is>
-          <t>91440300MA5GBRB47U</t>
-        </is>
-      </c>
+      <c r="C462" t="inlineStr"/>
       <c r="D462" t="inlineStr">
         <is>
           <t>杨琦</t>
@@ -11994,11 +10150,7 @@
           <t>江苏瑞宇宸温室设备安装有限公司</t>
         </is>
       </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>91321281MA27EYF010</t>
-        </is>
-      </c>
+      <c r="C463" t="inlineStr"/>
       <c r="D463" t="inlineStr">
         <is>
           <t>徐祖斌</t>
@@ -12019,11 +10171,7 @@
           <t>吴兴南煜建材经营部</t>
         </is>
       </c>
-      <c r="C464" t="inlineStr">
-        <is>
-          <t>92330502MA2D5FKWXE</t>
-        </is>
-      </c>
+      <c r="C464" t="inlineStr"/>
       <c r="D464" t="inlineStr">
         <is>
           <t>姜南</t>
@@ -12044,11 +10192,7 @@
           <t>云南特奥星玻璃有限公司</t>
         </is>
       </c>
-      <c r="C465" t="inlineStr">
-        <is>
-          <t>91530112MA6PFMTG8F</t>
-        </is>
-      </c>
+      <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr">
         <is>
           <t>杨先报</t>
@@ -12069,11 +10213,7 @@
           <t>张家港市中健装饰工程有限公司</t>
         </is>
       </c>
-      <c r="C466" t="inlineStr">
-        <is>
-          <t>91320582MA1UQDF5XD</t>
-        </is>
-      </c>
+      <c r="C466" t="inlineStr"/>
       <c r="D466" t="inlineStr">
         <is>
           <t>许尔健</t>
@@ -12094,11 +10234,7 @@
           <t>东莞市托比包装材料有限公司</t>
         </is>
       </c>
-      <c r="C467" t="inlineStr">
-        <is>
-          <t>91441900MA53H06H9N</t>
-        </is>
-      </c>
+      <c r="C467" t="inlineStr"/>
       <c r="D467" t="inlineStr">
         <is>
           <t>叶庆梅</t>
@@ -12119,11 +10255,7 @@
           <t>江苏港丰锅炉工程有限公司</t>
         </is>
       </c>
-      <c r="C468" t="inlineStr">
-        <is>
-          <t>91320582MA1RA0UA0D</t>
-        </is>
-      </c>
+      <c r="C468" t="inlineStr"/>
       <c r="D468" t="inlineStr">
         <is>
           <t>李保和</t>
@@ -12144,11 +10276,7 @@
           <t>宁波港洲装饰工程有限公司</t>
         </is>
       </c>
-      <c r="C469" t="inlineStr">
-        <is>
-          <t>91330203MA2GRHTX3R</t>
-        </is>
-      </c>
+      <c r="C469" t="inlineStr"/>
       <c r="D469" t="inlineStr">
         <is>
           <t>秦斌</t>
@@ -12169,11 +10297,7 @@
           <t>苏州市吴中区胥口茜茜烟杂店</t>
         </is>
       </c>
-      <c r="C470" t="inlineStr">
-        <is>
-          <t>92320506MA1PJ1MF0B</t>
-        </is>
-      </c>
+      <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr">
         <is>
           <t>朱延芝</t>
@@ -12194,11 +10318,7 @@
           <t>厦门城祥兴印刷有限公司</t>
         </is>
       </c>
-      <c r="C471" t="inlineStr">
-        <is>
-          <t>91350212MA32U8CN40</t>
-        </is>
-      </c>
+      <c r="C471" t="inlineStr"/>
       <c r="D471" t="inlineStr">
         <is>
           <t>陈跃峰</t>
@@ -12219,11 +10339,7 @@
           <t>山东鸿扩基础工程有限公司</t>
         </is>
       </c>
-      <c r="C472" t="inlineStr">
-        <is>
-          <t>91371300MA3PC2U07U</t>
-        </is>
-      </c>
+      <c r="C472" t="inlineStr"/>
       <c r="D472" t="inlineStr">
         <is>
           <t>朱鹏涛</t>
@@ -12244,11 +10360,7 @@
           <t>宁波竣宇轴承有限公司</t>
         </is>
       </c>
-      <c r="C473" t="inlineStr">
-        <is>
-          <t>91330282MA2J3RAB18</t>
-        </is>
-      </c>
+      <c r="C473" t="inlineStr"/>
       <c r="D473" t="inlineStr">
         <is>
           <t>吉金娥</t>
@@ -12269,11 +10381,7 @@
           <t>罗瑞尔纳米合成材料（江苏）有限公司</t>
         </is>
       </c>
-      <c r="C474" t="inlineStr">
-        <is>
-          <t>9132058306452855XP</t>
-        </is>
-      </c>
+      <c r="C474" t="inlineStr"/>
       <c r="D474" t="inlineStr">
         <is>
           <t>管晓玲</t>
@@ -12294,11 +10402,7 @@
           <t>广州市羲禾众联道路建设有限公司</t>
         </is>
       </c>
-      <c r="C475" t="inlineStr">
-        <is>
-          <t>91440112MA59C1N68R</t>
-        </is>
-      </c>
+      <c r="C475" t="inlineStr"/>
       <c r="D475" t="inlineStr">
         <is>
           <t>欧阳一凡</t>
@@ -12319,11 +10423,7 @@
           <t>曹县天斗农业发展有限公司</t>
         </is>
       </c>
-      <c r="C476" t="inlineStr">
-        <is>
-          <t>91371721MA3Q2XT01X</t>
-        </is>
-      </c>
+      <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr">
         <is>
           <t>李贺</t>
@@ -12344,11 +10444,7 @@
           <t>湖州力峰金属科技有限公司</t>
         </is>
       </c>
-      <c r="C477" t="inlineStr">
-        <is>
-          <t>91330523MA2JKQ9134</t>
-        </is>
-      </c>
+      <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
         <is>
           <t>胡金兰</t>
@@ -12369,11 +10465,7 @@
           <t>揭阳市景祥新型材料实业有限公司</t>
         </is>
       </c>
-      <c r="C478" t="inlineStr">
-        <is>
-          <t>91445200MA51GU5P25</t>
-        </is>
-      </c>
+      <c r="C478" t="inlineStr"/>
       <c r="D478" t="inlineStr">
         <is>
           <t>沈映钦</t>
@@ -12394,11 +10486,7 @@
           <t>武汉嘉源祥贸易有限公司</t>
         </is>
       </c>
-      <c r="C479" t="inlineStr">
-        <is>
-          <t>91420102095436551U</t>
-        </is>
-      </c>
+      <c r="C479" t="inlineStr"/>
       <c r="D479" t="inlineStr">
         <is>
           <t>刘艳</t>
@@ -12419,11 +10507,7 @@
           <t>浙江楚韵服饰有限公司</t>
         </is>
       </c>
-      <c r="C480" t="inlineStr">
-        <is>
-          <t>91330782MA2E6CQ129</t>
-        </is>
-      </c>
+      <c r="C480" t="inlineStr"/>
       <c r="D480" t="inlineStr">
         <is>
           <t>刘友涛</t>
@@ -12444,11 +10528,7 @@
           <t>四会市美秊华健康咨询服务中心</t>
         </is>
       </c>
-      <c r="C481" t="inlineStr">
-        <is>
-          <t>92441284MA579KM9XM</t>
-        </is>
-      </c>
+      <c r="C481" t="inlineStr"/>
       <c r="D481" t="inlineStr">
         <is>
           <t>杨道芬</t>
@@ -12469,11 +10549,7 @@
           <t>昆明经济技术开发区同华道副食品经营部</t>
         </is>
       </c>
-      <c r="C482" t="inlineStr">
-        <is>
-          <t>92530100MA6P6C8235</t>
-        </is>
-      </c>
+      <c r="C482" t="inlineStr"/>
       <c r="D482" t="inlineStr">
         <is>
           <t>陆荣杰</t>
@@ -12494,11 +10570,7 @@
           <t>武城县南洋纺织有限公司</t>
         </is>
       </c>
-      <c r="C483" t="inlineStr">
-        <is>
-          <t>91371428167529758E</t>
-        </is>
-      </c>
+      <c r="C483" t="inlineStr"/>
       <c r="D483" t="inlineStr">
         <is>
           <t>王宝岭</t>
@@ -12519,11 +10591,7 @@
           <t>山东志华商务宾馆服务有限公司</t>
         </is>
       </c>
-      <c r="C484" t="inlineStr">
-        <is>
-          <t>91371321MA3MFYFH1G</t>
-        </is>
-      </c>
+      <c r="C484" t="inlineStr"/>
       <c r="D484" t="inlineStr">
         <is>
           <t>汪秀辉</t>
@@ -12544,11 +10612,7 @@
           <t>江西环埠网络科技有限公司</t>
         </is>
       </c>
-      <c r="C485" t="inlineStr">
-        <is>
-          <t>91361022MA35L2Y38T</t>
-        </is>
-      </c>
+      <c r="C485" t="inlineStr"/>
       <c r="D485" t="inlineStr">
         <is>
           <t>程成荣</t>
@@ -12569,11 +10633,7 @@
           <t>深圳市龙岗区六联老围客家菜馆</t>
         </is>
       </c>
-      <c r="C486" t="inlineStr">
-        <is>
-          <t>92440300MA5F5P0F89</t>
-        </is>
-      </c>
+      <c r="C486" t="inlineStr"/>
       <c r="D486" t="inlineStr">
         <is>
           <t>彭萍</t>
@@ -12594,11 +10654,7 @@
           <t>江阴市万盛翔金属制品有限公司</t>
         </is>
       </c>
-      <c r="C487" t="inlineStr">
-        <is>
-          <t>91320281MA1T7A4W8U</t>
-        </is>
-      </c>
+      <c r="C487" t="inlineStr"/>
       <c r="D487" t="inlineStr">
         <is>
           <t>戴彩华</t>
@@ -12619,11 +10675,7 @@
           <t>唐山市广来商贸有限公司</t>
         </is>
       </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>91130204MA0FLKK230</t>
-        </is>
-      </c>
+      <c r="C488" t="inlineStr"/>
       <c r="D488" t="inlineStr">
         <is>
           <t>史更新</t>
@@ -12644,11 +10696,7 @@
           <t>安徽冠京建筑劳务有限公司</t>
         </is>
       </c>
-      <c r="C489" t="inlineStr">
-        <is>
-          <t>91340122MA2RMA168Q</t>
-        </is>
-      </c>
+      <c r="C489" t="inlineStr"/>
       <c r="D489" t="inlineStr">
         <is>
           <t>音正定</t>
@@ -12669,11 +10717,7 @@
           <t>浦江家邻江卫浴科技有限公司</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr">
-        <is>
-          <t>91330726MA29QMJK5F</t>
-        </is>
-      </c>
+      <c r="C490" t="inlineStr"/>
       <c r="D490" t="inlineStr">
         <is>
           <t>黄子鹏</t>
@@ -12694,11 +10738,7 @@
           <t>江苏华唐建设工程有限公司</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr">
-        <is>
-          <t>91320722MA1XTLYR15</t>
-        </is>
-      </c>
+      <c r="C491" t="inlineStr"/>
       <c r="D491" t="inlineStr">
         <is>
           <t>唐尧</t>
@@ -12719,11 +10759,7 @@
           <t>苏州全霖跃贸易有限公司</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr">
-        <is>
-          <t>91320505323628038F</t>
-        </is>
-      </c>
+      <c r="C492" t="inlineStr"/>
       <c r="D492" t="inlineStr">
         <is>
           <t>张龙泾</t>
@@ -12744,11 +10780,7 @@
           <t>武汉朗格瑞家具有限公司</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr">
-        <is>
-          <t>914201110908367677</t>
-        </is>
-      </c>
+      <c r="C493" t="inlineStr"/>
       <c r="D493" t="inlineStr">
         <is>
           <t>王卫卫</t>
@@ -12769,11 +10801,7 @@
           <t>玉环宏祥汽车贸易有限公司</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr">
-        <is>
-          <t>91331021092322401C</t>
-        </is>
-      </c>
+      <c r="C494" t="inlineStr"/>
       <c r="D494" t="inlineStr">
         <is>
           <t>蒋辉</t>
@@ -12794,11 +10822,7 @@
           <t>重庆全域肿瘤医院有限公司</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr">
-        <is>
-          <t>91500101MA602T3741</t>
-        </is>
-      </c>
+      <c r="C495" t="inlineStr"/>
       <c r="D495" t="inlineStr">
         <is>
           <t>王天甫</t>
@@ -12819,11 +10843,7 @@
           <t>冠县特嘉易轴承有限公司</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr">
-        <is>
-          <t>91371525MA3WD4Y34B</t>
-        </is>
-      </c>
+      <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
           <t>卢广杰</t>
@@ -12844,11 +10864,7 @@
           <t>柳州市光益混凝土有限公司</t>
         </is>
       </c>
-      <c r="C497" t="inlineStr">
-        <is>
-          <t>91450200MA5L7A3A10</t>
-        </is>
-      </c>
+      <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
           <t>冯超超</t>
@@ -12869,11 +10885,7 @@
           <t>武汉璟恩新型建材有限公司</t>
         </is>
       </c>
-      <c r="C498" t="inlineStr">
-        <is>
-          <t>91420113MA49MY9E7C</t>
-        </is>
-      </c>
+      <c r="C498" t="inlineStr"/>
       <c r="D498" t="inlineStr">
         <is>
           <t>吴小虎</t>
@@ -12894,11 +10906,7 @@
           <t>石家庄年连红家具有限公司</t>
         </is>
       </c>
-      <c r="C499" t="inlineStr">
-        <is>
-          <t>91130123MA09FYGL36</t>
-        </is>
-      </c>
+      <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr">
         <is>
           <t>段立胜</t>
@@ -12919,11 +10927,7 @@
           <t>东川区美家旺装饰装修经营部</t>
         </is>
       </c>
-      <c r="C500" t="inlineStr">
-        <is>
-          <t>92530113MA6QD9LL2N</t>
-        </is>
-      </c>
+      <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr">
         <is>
           <t>余海燕</t>
@@ -12944,11 +10948,7 @@
           <t>石首市永祥建材有限公司</t>
         </is>
       </c>
-      <c r="C501" t="inlineStr">
-        <is>
-          <t>9142108106068933X6</t>
-        </is>
-      </c>
+      <c r="C501" t="inlineStr"/>
       <c r="D501" t="inlineStr">
         <is>
           <t>杨文斌</t>
@@ -12969,11 +10969,7 @@
           <t>东莞中惠新能源有限公司</t>
         </is>
       </c>
-      <c r="C502" t="inlineStr">
-        <is>
-          <t>91441900MA56WQKQ7U</t>
-        </is>
-      </c>
+      <c r="C502" t="inlineStr"/>
       <c r="D502" t="inlineStr">
         <is>
           <t>严坤能</t>
@@ -13119,11 +11115,7 @@
           <t>福莆环保科技有限公司</t>
         </is>
       </c>
-      <c r="C508" t="inlineStr">
-        <is>
-          <t>91370305MA3P0T2748</t>
-        </is>
-      </c>
+      <c r="C508" t="inlineStr"/>
       <c r="D508" t="inlineStr">
         <is>
           <t>赵建强</t>
@@ -13296,7 +11288,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>91421000MA7L0LRB8P</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -14271,7 +12263,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>913301063419023282</t>
+          <t>2015-06-01</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">

--- a/data/1.xlsx
+++ b/data/1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,7 +469,11 @@
           <t>围金坊（广州）服饰有限公司</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9144010179736795XT</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>寇荣庆</t>
@@ -490,7 +494,11 @@
           <t>深圳市龙江电路有限公司</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>914403005815604518</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>龚德科</t>
@@ -511,7 +519,11 @@
           <t>潞丰(广东)照明科技有限公司</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>91442000056840607J</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>衷春藤</t>
@@ -532,7 +544,11 @@
           <t>泗阳金顺台板厂</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>91321323MA1MGG747N</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>王红英</t>
@@ -553,7 +569,11 @@
           <t>丹阳市鹏运百货贸易有限公司</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>913211816883309393</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>朱正平</t>
@@ -574,7 +594,11 @@
           <t>苏州易顺合新材料有限公司</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>91320508MA1ME39R1Y</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>王伟</t>
@@ -595,7 +619,11 @@
           <t>东莞市先红物流有限公司</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>91441900314840977A</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>余秋红</t>
@@ -616,7 +644,11 @@
           <t>南京庆盟电子商务有限公司</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>91320115MA1PY3R23Q</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>陈春明</t>
@@ -637,7 +669,11 @@
           <t>东莞市东埔园林景观工程有限公司</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>91441900MA4UNP2K1X</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>肖志强</t>
